--- a/data/FactorioPageList.xlsx
+++ b/data/FactorioPageList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\FactorioBot\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ABBB22F-D7C9-48BE-9981-C7C4A94AB77F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67CBF54-CBA4-4697-AAAF-2D130B42E997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="1935" windowWidth="17025" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28845" yWindow="105" windowWidth="21825" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FactorioPageList" sheetId="1" r:id="rId1"/>
@@ -121,9 +121,6 @@
     <t>Ammunition/zh</t>
   </si>
   <si>
-    <t>Application directory</t>
-  </si>
-  <si>
     <t>Application directory/zh</t>
   </si>
   <si>
@@ -229,9 +226,6 @@
     <t>Automated rail transportation (research)/zh</t>
   </si>
   <si>
-    <t>Automation (research)</t>
-  </si>
-  <si>
     <t>Automation (research)/zh</t>
   </si>
   <si>
@@ -706,9 +700,6 @@
     <t>Electric energy distribution 1 (research)/zh</t>
   </si>
   <si>
-    <t>Electric energy distribution 2 (research)</t>
-  </si>
-  <si>
     <t>Electric energy distribution 2 (research)/zh</t>
   </si>
   <si>
@@ -850,9 +841,6 @@
     <t>Explosive uranium cannon shell/zh</t>
   </si>
   <si>
-    <t>Explosives</t>
-  </si>
-  <si>
     <t>Explosives/zh</t>
   </si>
   <si>
@@ -1063,9 +1051,6 @@
     <t>Gun turret damage (research)/zh</t>
   </si>
   <si>
-    <t>Hazard concrete</t>
-  </si>
-  <si>
     <t>Hazard concrete/zh</t>
   </si>
   <si>
@@ -2071,9 +2056,6 @@
     <t>Space science pack/zh</t>
   </si>
   <si>
-    <t>Space science pack (research)</t>
-  </si>
-  <si>
     <t>Space science pack (research)/zh</t>
   </si>
   <si>
@@ -2401,9 +2383,6 @@
     <t>Uranium-238/zh</t>
   </si>
   <si>
-    <t>Uranium ammo (research)</t>
-  </si>
-  <si>
     <t>Uranium ammo (research)/zh</t>
   </si>
   <si>
@@ -2437,9 +2416,6 @@
     <t>Uranium processing (research)/zh</t>
   </si>
   <si>
-    <t>Uranium rounds magazine</t>
-  </si>
-  <si>
     <t>Uranium rounds magazine/zh</t>
   </si>
   <si>
@@ -2651,9 +2627,6 @@
   </si>
   <si>
     <t>Refined flammables (research)/zh</t>
-  </si>
-  <si>
-    <t>Replay system</t>
   </si>
   <si>
     <t>Replay system/zh</t>
@@ -2797,6 +2770,42 @@
   </si>
   <si>
     <t>Kovarex enrichment process (research)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uranium ammo (research)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Electric energy distribution 2 (research)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Automation (research)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hazard concrete</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Explosives</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uranium rounds magazine</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Space science pack (research)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Replay system</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Application directory</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -3398,7 +3407,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3406,6 +3415,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3766,13 +3778,13 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F457"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C108" sqref="C108"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A130" sqref="A130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.375" customWidth="1"/>
+    <col min="1" max="1" width="26.125" customWidth="1"/>
     <col min="2" max="2" width="20.125" customWidth="1"/>
     <col min="3" max="3" width="17.875" customWidth="1"/>
     <col min="4" max="4" width="20.125" customWidth="1"/>
@@ -3802,7 +3814,7 @@
     </row>
     <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>910</v>
+        <v>901</v>
       </c>
       <c r="B2" s="1">
         <v>44060.43986111111</v>
@@ -3811,7 +3823,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="E2" s="1">
         <v>44060.440046296295</v>
@@ -3822,7 +3834,7 @@
     </row>
     <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="B3" s="1">
         <v>44158.871550925927</v>
@@ -3831,7 +3843,7 @@
         <v>105</v>
       </c>
       <c r="D3" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="E3" s="1">
         <v>44158.871817129628</v>
@@ -3842,7 +3854,7 @@
     </row>
     <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B4" s="1">
         <v>43634.421423611115</v>
@@ -3851,7 +3863,7 @@
         <v>108</v>
       </c>
       <c r="D4" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E4" s="1">
         <v>44515.760694444441</v>
@@ -3862,7 +3874,7 @@
     </row>
     <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="B5" s="1">
         <v>42935.707812499997</v>
@@ -3871,7 +3883,7 @@
         <v>109</v>
       </c>
       <c r="D5" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="E5" s="1">
         <v>43293.371666666666</v>
@@ -3882,7 +3894,7 @@
     </row>
     <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="1">
         <v>43085.721388888887</v>
@@ -3891,7 +3903,7 @@
         <v>109</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6" s="1">
         <v>43293.413148148145</v>
@@ -3902,7 +3914,7 @@
     </row>
     <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B7" s="1">
         <v>42935.65697916667</v>
@@ -3911,7 +3923,7 @@
         <v>109</v>
       </c>
       <c r="D7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E7" s="1">
         <v>43293.499224537038</v>
@@ -3922,7 +3934,7 @@
     </row>
     <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B8" s="1">
         <v>42935.685601851852</v>
@@ -3931,7 +3943,7 @@
         <v>109</v>
       </c>
       <c r="D8" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="E8" s="1">
         <v>43293.507141203707</v>
@@ -3942,7 +3954,7 @@
     </row>
     <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="B9" s="1">
         <v>42935.705960648149</v>
@@ -3951,7 +3963,7 @@
         <v>109</v>
       </c>
       <c r="D9" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="E9" s="1">
         <v>43293.514351851853</v>
@@ -3962,7 +3974,7 @@
     </row>
     <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B10" s="1">
         <v>44158.891643518517</v>
@@ -3971,7 +3983,7 @@
         <v>109</v>
       </c>
       <c r="D10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E10" s="1">
         <v>44158.89166666667</v>
@@ -3982,7 +3994,7 @@
     </row>
     <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B11" s="1">
         <v>43312.734085648146</v>
@@ -3991,7 +4003,7 @@
         <v>109</v>
       </c>
       <c r="D11" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="E11" s="1">
         <v>44583.144988425927</v>
@@ -4000,9 +4012,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>911</v>
+        <v>902</v>
       </c>
       <c r="B12" s="1">
         <v>44158.887719907405</v>
@@ -4011,18 +4023,18 @@
         <v>110</v>
       </c>
       <c r="D12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E12" s="1">
         <v>44158.887708333335</v>
       </c>
       <c r="F12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="B13" s="1">
         <v>42935.690335648149</v>
@@ -4031,7 +4043,7 @@
         <v>111</v>
       </c>
       <c r="D13" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="E13" s="1">
         <v>43293.370405092595</v>
@@ -4040,9 +4052,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>912</v>
+        <v>903</v>
       </c>
       <c r="B14" s="1">
         <v>43661.838043981479</v>
@@ -4051,18 +4063,18 @@
         <v>111</v>
       </c>
       <c r="D14" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="E14" s="1">
         <v>43661.83803240741</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="B15" s="1">
         <v>44158.872071759259</v>
@@ -4071,7 +4083,7 @@
         <v>111</v>
       </c>
       <c r="D15" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="E15" s="1">
         <v>44158.872349537036</v>
@@ -4082,7 +4094,7 @@
     </row>
     <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B16" s="1">
         <v>42935.676874999997</v>
@@ -4091,7 +4103,7 @@
         <v>112</v>
       </c>
       <c r="D16" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E16" s="1">
         <v>43293.367314814815</v>
@@ -4102,7 +4114,7 @@
     </row>
     <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B17" s="1">
         <v>43748.575833333336</v>
@@ -4111,7 +4123,7 @@
         <v>112</v>
       </c>
       <c r="D17" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E17" s="1">
         <v>43823.21261574074</v>
@@ -4122,7 +4134,7 @@
     </row>
     <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B18" s="1">
         <v>44158.874699074076</v>
@@ -4131,7 +4143,7 @@
         <v>113</v>
       </c>
       <c r="D18" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="E18" s="1">
         <v>44158.875023148146</v>
@@ -4142,7 +4154,7 @@
     </row>
     <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B19" s="1">
         <v>43082.793379629627</v>
@@ -4151,7 +4163,7 @@
         <v>116</v>
       </c>
       <c r="D19" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E19" s="1">
         <v>43293.496412037035</v>
@@ -4162,7 +4174,7 @@
     </row>
     <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="B20" s="1">
         <v>42982.573333333334</v>
@@ -4171,7 +4183,7 @@
         <v>116</v>
       </c>
       <c r="D20" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="E20" s="1">
         <v>43293.535509259258</v>
@@ -4182,7 +4194,7 @@
     </row>
     <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B21" s="1">
         <v>42935.660682870373</v>
@@ -4191,7 +4203,7 @@
         <v>118</v>
       </c>
       <c r="D21" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E21" s="1">
         <v>43293.530370370368</v>
@@ -4202,7 +4214,7 @@
     </row>
     <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B22" s="1">
         <v>43522.724502314813</v>
@@ -4211,7 +4223,7 @@
         <v>118</v>
       </c>
       <c r="D22" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E22" s="1">
         <v>43522.724583333336</v>
@@ -4222,7 +4234,7 @@
     </row>
     <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="B23" s="1">
         <v>43634.424513888887</v>
@@ -4231,7 +4243,7 @@
         <v>118</v>
       </c>
       <c r="D23" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="E23" s="1">
         <v>44515.759629629632</v>
@@ -4242,7 +4254,7 @@
     </row>
     <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B24" s="1">
         <v>43634.424664351849</v>
@@ -4251,7 +4263,7 @@
         <v>120</v>
       </c>
       <c r="D24" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="E24" s="1">
         <v>43823.217002314814</v>
@@ -4262,7 +4274,7 @@
     </row>
     <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="B25" s="1">
         <v>43522.727997685186</v>
@@ -4271,7 +4283,7 @@
         <v>121</v>
       </c>
       <c r="D25" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="E25" s="1">
         <v>43522.728402777779</v>
@@ -4282,7 +4294,7 @@
     </row>
     <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="B26" s="1">
         <v>43552.61273148148</v>
@@ -4291,7 +4303,7 @@
         <v>124</v>
       </c>
       <c r="D26" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="E26" s="1">
         <v>44583.152685185189</v>
@@ -4302,7 +4314,7 @@
     </row>
     <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="B27" s="1">
         <v>42935.691053240742</v>
@@ -4311,7 +4323,7 @@
         <v>126</v>
       </c>
       <c r="D27" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="E27" s="1">
         <v>43293.406273148146</v>
@@ -4322,7 +4334,7 @@
     </row>
     <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B28" s="1">
         <v>42935.66978009259</v>
@@ -4331,7 +4343,7 @@
         <v>127</v>
       </c>
       <c r="D28" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E28" s="1">
         <v>43293.539571759262</v>
@@ -4342,7 +4354,7 @@
     </row>
     <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="B29" s="1">
         <v>42935.711423611108</v>
@@ -4351,7 +4363,7 @@
         <v>127</v>
       </c>
       <c r="D29" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="E29" s="1">
         <v>43293.541747685187</v>
@@ -4382,7 +4394,7 @@
     </row>
     <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B31" s="1">
         <v>42935.670092592591</v>
@@ -4391,7 +4403,7 @@
         <v>129</v>
       </c>
       <c r="D31" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E31" s="1">
         <v>43293.540046296293</v>
@@ -4402,7 +4414,7 @@
     </row>
     <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B32" s="1">
         <v>42935.670254629629</v>
@@ -4411,7 +4423,7 @@
         <v>129</v>
       </c>
       <c r="D32" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E32" s="1">
         <v>43293.540509259263</v>
@@ -4422,7 +4434,7 @@
     </row>
     <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="B33" s="1">
         <v>42935.711516203701</v>
@@ -4431,7 +4443,7 @@
         <v>129</v>
       </c>
       <c r="D33" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="E33" s="1">
         <v>43293.542905092596</v>
@@ -4442,7 +4454,7 @@
     </row>
     <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="B34" s="1">
         <v>42935.71166666667</v>
@@ -4451,7 +4463,7 @@
         <v>129</v>
       </c>
       <c r="D34" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="E34" s="1">
         <v>43293.544317129628</v>
@@ -4462,7 +4474,7 @@
     </row>
     <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="B35" s="1">
         <v>42935.702337962961</v>
@@ -4471,7 +4483,7 @@
         <v>131</v>
       </c>
       <c r="D35" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="E35" s="1">
         <v>43293.542141203703</v>
@@ -4482,7 +4494,7 @@
     </row>
     <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="B36" s="1">
         <v>42935.702476851853</v>
@@ -4491,7 +4503,7 @@
         <v>131</v>
       </c>
       <c r="D36" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="E36" s="1">
         <v>43293.542546296296</v>
@@ -4502,7 +4514,7 @@
     </row>
     <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="B37" s="1">
         <v>42935.699745370373</v>
@@ -4511,7 +4523,7 @@
         <v>132</v>
       </c>
       <c r="D37" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="E37" s="1">
         <v>43293.407222222224</v>
@@ -4522,7 +4534,7 @@
     </row>
     <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="B38" s="1">
         <v>42980.702743055554</v>
@@ -4531,7 +4543,7 @@
         <v>134</v>
       </c>
       <c r="D38" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="E38" s="1">
         <v>43285.421643518515</v>
@@ -4542,7 +4554,7 @@
     </row>
     <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="B39" s="1">
         <v>42935.702245370368</v>
@@ -4551,7 +4563,7 @@
         <v>134</v>
       </c>
       <c r="D39" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="E39" s="1">
         <v>43293.54111111111</v>
@@ -4562,7 +4574,7 @@
     </row>
     <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="B40" s="1">
         <v>43587.827974537038</v>
@@ -4571,7 +4583,7 @@
         <v>134</v>
       </c>
       <c r="D40" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="E40" s="1">
         <v>43587.828321759262</v>
@@ -4582,7 +4594,7 @@
     </row>
     <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="B41" s="1">
         <v>43522.727152777778</v>
@@ -4591,7 +4603,7 @@
         <v>137</v>
       </c>
       <c r="D41" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="E41" s="1">
         <v>43522.727222222224</v>
@@ -4600,9 +4612,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>913</v>
+        <v>904</v>
       </c>
       <c r="B42" s="1">
         <v>43914.644490740742</v>
@@ -4611,18 +4623,18 @@
         <v>139</v>
       </c>
       <c r="D42" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="E42" s="1">
         <v>43293.509618055556</v>
       </c>
       <c r="F42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="B43" s="1">
         <v>42935.698842592596</v>
@@ -4631,7 +4643,7 @@
         <v>141</v>
       </c>
       <c r="D43" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="E43" s="1">
         <v>43293.537175925929</v>
@@ -4642,7 +4654,7 @@
     </row>
     <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="B44" s="1">
         <v>42935.692361111112</v>
@@ -4651,7 +4663,7 @@
         <v>143</v>
       </c>
       <c r="D44" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="E44" s="1">
         <v>43293.534432870372</v>
@@ -4662,7 +4674,7 @@
     </row>
     <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="B45" s="1">
         <v>42935.694861111115</v>
@@ -4671,7 +4683,7 @@
         <v>143</v>
       </c>
       <c r="D45" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="E45" s="1">
         <v>43293.535000000003</v>
@@ -4682,7 +4694,7 @@
     </row>
     <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="B46" s="1">
         <v>42935.697685185187</v>
@@ -4691,7 +4703,7 @@
         <v>144</v>
       </c>
       <c r="D46" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="E46" s="1">
         <v>43293.536458333336</v>
@@ -4702,7 +4714,7 @@
     </row>
     <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="B47" s="1">
         <v>42980.738229166665</v>
@@ -4711,7 +4723,7 @@
         <v>149</v>
       </c>
       <c r="D47" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="E47" s="1">
         <v>43274.371631944443</v>
@@ -4722,7 +4734,7 @@
     </row>
     <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="B48" s="1">
         <v>44057.380810185183</v>
@@ -4731,7 +4743,7 @@
         <v>149</v>
       </c>
       <c r="D48" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="E48" s="1">
         <v>44515.745706018519</v>
@@ -4742,7 +4754,7 @@
     </row>
     <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B49" s="1">
         <v>43344.516689814816</v>
@@ -4751,7 +4763,7 @@
         <v>151</v>
       </c>
       <c r="D49" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="E49" s="1">
         <v>44583.162708333337</v>
@@ -4762,7 +4774,7 @@
     </row>
     <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="B50" s="1">
         <v>43723.275717592594</v>
@@ -4771,7 +4783,7 @@
         <v>152</v>
       </c>
       <c r="D50" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="E50" s="1">
         <v>44583.168773148151</v>
@@ -4782,7 +4794,7 @@
     </row>
     <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B51" s="1">
         <v>43274.378680555557</v>
@@ -4791,7 +4803,7 @@
         <v>164</v>
       </c>
       <c r="D51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E51" s="1">
         <v>43285.424259259256</v>
@@ -4800,9 +4812,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>897</v>
+        <v>888</v>
       </c>
       <c r="B52" s="1">
         <v>43104.541238425925</v>
@@ -4811,15 +4823,15 @@
         <v>164</v>
       </c>
       <c r="D52" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="F52" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>898</v>
+        <v>889</v>
       </c>
       <c r="B53" s="1">
         <v>44060.44091435185</v>
@@ -4828,15 +4840,15 @@
         <v>174</v>
       </c>
       <c r="D53" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="F53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B54" s="1">
         <v>42935.69222222222</v>
@@ -4845,7 +4857,7 @@
         <v>175</v>
       </c>
       <c r="D54" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="E54" s="1">
         <v>43293.538055555553</v>
@@ -4856,7 +4868,7 @@
     </row>
     <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B55" s="1">
         <v>43146.672372685185</v>
@@ -4865,7 +4877,7 @@
         <v>176</v>
       </c>
       <c r="D55" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E55" s="1">
         <v>43285.419907407406</v>
@@ -4876,7 +4888,7 @@
     </row>
     <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B56" s="1">
         <v>42935.626759259256</v>
@@ -4885,7 +4897,7 @@
         <v>180</v>
       </c>
       <c r="D56" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E56" s="1">
         <v>43293.521238425928</v>
@@ -4896,7 +4908,7 @@
     </row>
     <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="B57" s="1">
         <v>42980.710752314815</v>
@@ -4905,7 +4917,7 @@
         <v>181</v>
       </c>
       <c r="D57" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="E57" s="1">
         <v>43274.372129629628</v>
@@ -4916,7 +4928,7 @@
     </row>
     <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="B58" s="1">
         <v>44086.938298611109</v>
@@ -4925,7 +4937,7 @@
         <v>190</v>
       </c>
       <c r="D58" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="E58" s="1">
         <v>44583.173194444447</v>
@@ -4936,7 +4948,7 @@
     </row>
     <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="B59" s="1">
         <v>42955.819502314815</v>
@@ -4945,7 +4957,7 @@
         <v>191</v>
       </c>
       <c r="D59" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="E59" s="1">
         <v>43293.322222222225</v>
@@ -4956,7 +4968,7 @@
     </row>
     <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="B60" s="1">
         <v>44088.28460648148</v>
@@ -4965,7 +4977,7 @@
         <v>193</v>
       </c>
       <c r="D60" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="E60" s="1">
         <v>44450.582986111112</v>
@@ -4976,7 +4988,7 @@
     </row>
     <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B61" s="1">
         <v>43214.499780092592</v>
@@ -4985,7 +4997,7 @@
         <v>196</v>
       </c>
       <c r="D61" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="E61" s="1">
         <v>43293.314421296294</v>
@@ -4996,7 +5008,7 @@
     </row>
     <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B62" s="1">
         <v>42960.381284722222</v>
@@ -5005,7 +5017,7 @@
         <v>196</v>
       </c>
       <c r="D62" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E62" s="1">
         <v>43293.500543981485</v>
@@ -5016,7 +5028,7 @@
     </row>
     <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B63" s="1">
         <v>42935.673252314817</v>
@@ -5025,7 +5037,7 @@
         <v>196</v>
       </c>
       <c r="D63" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E63" s="1">
         <v>43293.502395833333</v>
@@ -5036,7 +5048,7 @@
     </row>
     <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B64" s="1">
         <v>44088.284537037034</v>
@@ -5045,7 +5057,7 @@
         <v>199</v>
       </c>
       <c r="D64" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="E64" s="1">
         <v>44169.660925925928</v>
@@ -5056,7 +5068,7 @@
     </row>
     <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B65" s="1">
         <v>44088.287592592591</v>
@@ -5065,7 +5077,7 @@
         <v>199</v>
       </c>
       <c r="D65" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E65" s="1">
         <v>44583.177905092591</v>
@@ -5076,7 +5088,7 @@
     </row>
     <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="B66" s="1">
         <v>42980.709965277776</v>
@@ -5085,7 +5097,7 @@
         <v>201</v>
       </c>
       <c r="D66" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="E66" s="1">
         <v>43274.371701388889</v>
@@ -5096,7 +5108,7 @@
     </row>
     <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B67" s="1">
         <v>44088.284629629627</v>
@@ -5105,7 +5117,7 @@
         <v>202</v>
       </c>
       <c r="D67" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E67" s="1">
         <v>44169.65421296296</v>
@@ -5116,7 +5128,7 @@
     </row>
     <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="B68" s="1">
         <v>44088.284560185188</v>
@@ -5125,7 +5137,7 @@
         <v>202</v>
       </c>
       <c r="D68" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="E68" s="1">
         <v>44583.183599537035</v>
@@ -5136,7 +5148,7 @@
     </row>
     <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="B69" s="1">
         <v>44128.357835648145</v>
@@ -5145,7 +5157,7 @@
         <v>207</v>
       </c>
       <c r="D69" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="E69" s="1">
         <v>44583.186388888891</v>
@@ -5156,7 +5168,7 @@
     </row>
     <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B70" s="1">
         <v>43316.175312500003</v>
@@ -5165,7 +5177,7 @@
         <v>208</v>
       </c>
       <c r="D70" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E70" s="1">
         <v>44583.203935185185</v>
@@ -5176,7 +5188,7 @@
     </row>
     <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B71" s="1">
         <v>44158.873993055553</v>
@@ -5185,7 +5197,7 @@
         <v>210</v>
       </c>
       <c r="D71" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E71" s="1">
         <v>44158.874456018515</v>
@@ -5196,7 +5208,7 @@
     </row>
     <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B72" s="1">
         <v>42982.569803240738</v>
@@ -5205,7 +5217,7 @@
         <v>217</v>
       </c>
       <c r="D72" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E72" s="1">
         <v>43293.525405092594</v>
@@ -5216,7 +5228,7 @@
     </row>
     <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B73" s="1">
         <v>43411.737523148149</v>
@@ -5225,7 +5237,7 @@
         <v>217</v>
       </c>
       <c r="D73" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="E73" s="1">
         <v>44583.208379629628</v>
@@ -5236,7 +5248,7 @@
     </row>
     <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B74" s="1">
         <v>42935.673611111109</v>
@@ -5245,7 +5257,7 @@
         <v>221</v>
       </c>
       <c r="D74" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E74" s="1">
         <v>43293.533541666664</v>
@@ -5256,7 +5268,7 @@
     </row>
     <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B75" s="1">
         <v>44583.212210648147</v>
@@ -5265,7 +5277,7 @@
         <v>222</v>
       </c>
       <c r="D75" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E75" s="1">
         <v>44583.215219907404</v>
@@ -5276,7 +5288,7 @@
     </row>
     <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B76" s="1">
         <v>42935.670995370368</v>
@@ -5285,7 +5297,7 @@
         <v>224</v>
       </c>
       <c r="D76" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E76" s="1">
         <v>43293.503634259258</v>
@@ -5296,7 +5308,7 @@
     </row>
     <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B77" s="1">
         <v>44480.577511574076</v>
@@ -5305,7 +5317,7 @@
         <v>224</v>
       </c>
       <c r="D77" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E77" s="1">
         <v>44583.217962962961</v>
@@ -5316,7 +5328,7 @@
     </row>
     <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B78" s="1">
         <v>44480.580104166664</v>
@@ -5325,7 +5337,7 @@
         <v>226</v>
       </c>
       <c r="D78" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E78" s="1">
         <v>44583.221967592595</v>
@@ -5336,7 +5348,7 @@
     </row>
     <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B79" s="1">
         <v>44330.414872685185</v>
@@ -5345,7 +5357,7 @@
         <v>228</v>
       </c>
       <c r="D79" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E79" s="1">
         <v>44583.224247685182</v>
@@ -5376,7 +5388,7 @@
     </row>
     <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B81" s="1">
         <v>43431.552916666667</v>
@@ -5385,7 +5397,7 @@
         <v>231</v>
       </c>
       <c r="D81" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E81" s="1">
         <v>44583.226678240739</v>
@@ -5396,7 +5408,7 @@
     </row>
     <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B82" s="1">
         <v>42982.550057870372</v>
@@ -5405,7 +5417,7 @@
         <v>232</v>
       </c>
       <c r="D82" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="E82" s="1">
         <v>43293.368900462963</v>
@@ -5436,7 +5448,7 @@
     </row>
     <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B84" s="1">
         <v>43886.607048611113</v>
@@ -5445,7 +5457,7 @@
         <v>236</v>
       </c>
       <c r="D84" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E84" s="1">
         <v>44583.243946759256</v>
@@ -5456,7 +5468,7 @@
     </row>
     <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B85" s="1">
         <v>44266.112546296295</v>
@@ -5465,7 +5477,7 @@
         <v>240</v>
       </c>
       <c r="D85" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E85" s="1">
         <v>44583.237766203703</v>
@@ -5476,7 +5488,7 @@
     </row>
     <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B86" s="1">
         <v>42961.022592592592</v>
@@ -5485,7 +5497,7 @@
         <v>242</v>
       </c>
       <c r="D86" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E86" s="1">
         <v>43293.505555555559</v>
@@ -5496,7 +5508,7 @@
     </row>
     <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="B87" s="1">
         <v>43258.395300925928</v>
@@ -5505,7 +5517,7 @@
         <v>246</v>
       </c>
       <c r="D87" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="E87" s="1">
         <v>43293.511493055557</v>
@@ -5516,7 +5528,7 @@
     </row>
     <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="B88" s="1">
         <v>44131.551979166667</v>
@@ -5525,7 +5537,7 @@
         <v>247</v>
       </c>
       <c r="D88" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="E88" s="1">
         <v>44515.757465277777</v>
@@ -5536,7 +5548,7 @@
     </row>
     <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B89" s="1">
         <v>43435.893217592595</v>
@@ -5545,7 +5557,7 @@
         <v>250</v>
       </c>
       <c r="D89" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E89" s="1">
         <v>44583.239398148151</v>
@@ -5556,7 +5568,7 @@
     </row>
     <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B90" s="1">
         <v>44158.876481481479</v>
@@ -5565,7 +5577,7 @@
         <v>250</v>
       </c>
       <c r="D90" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E90" s="1">
         <v>44583.24287037037</v>
@@ -5576,7 +5588,7 @@
     </row>
     <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B91" s="1">
         <v>43632.57471064815</v>
@@ -5585,7 +5597,7 @@
         <v>251</v>
       </c>
       <c r="D91" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="E91" s="1">
         <v>44583.245428240742</v>
@@ -5596,7 +5608,7 @@
     </row>
     <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
       <c r="B92" s="1">
         <v>43093.605081018519</v>
@@ -5605,7 +5617,7 @@
         <v>260</v>
       </c>
       <c r="D92" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="E92" s="1">
         <v>43285.423437500001</v>
@@ -5616,7 +5628,7 @@
     </row>
     <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B93" s="1">
         <v>44160.642141203702</v>
@@ -5625,7 +5637,7 @@
         <v>260</v>
       </c>
       <c r="D93" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E93" s="1">
         <v>44583.248576388891</v>
@@ -5636,7 +5648,7 @@
     </row>
     <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="B94" s="1">
         <v>43952.52857638889</v>
@@ -5645,7 +5657,7 @@
         <v>267</v>
       </c>
       <c r="D94" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="E94" s="1">
         <v>44583.253333333334</v>
@@ -5656,7 +5668,7 @@
     </row>
     <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
       <c r="B95" s="1">
         <v>43522.719965277778</v>
@@ -5665,7 +5677,7 @@
         <v>268</v>
       </c>
       <c r="D95" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="E95" s="1">
         <v>43522.720706018517</v>
@@ -5674,9 +5686,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>914</v>
+        <v>905</v>
       </c>
       <c r="B96" s="1">
         <v>44131.552256944444</v>
@@ -5685,18 +5697,18 @@
         <v>271</v>
       </c>
       <c r="D96" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="E96" s="1">
         <v>43299.990497685183</v>
       </c>
       <c r="F96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B97" s="1">
         <v>43633.882314814815</v>
@@ -5705,7 +5717,7 @@
         <v>279</v>
       </c>
       <c r="D97" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E97" s="1">
         <v>44515.763101851851</v>
@@ -5736,7 +5748,7 @@
     </row>
     <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B99" s="1">
         <v>42982.784583333334</v>
@@ -5745,7 +5757,7 @@
         <v>285</v>
       </c>
       <c r="D99" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="E99" s="1">
         <v>43293.316793981481</v>
@@ -5756,7 +5768,7 @@
     </row>
     <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B100" s="1">
         <v>43435.867430555554</v>
@@ -5765,7 +5777,7 @@
         <v>285</v>
       </c>
       <c r="D100" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="E100" s="1">
         <v>44583.260868055557</v>
@@ -5776,7 +5788,7 @@
     </row>
     <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="B101" s="1">
         <v>44498.705671296295</v>
@@ -5785,7 +5797,7 @@
         <v>289</v>
       </c>
       <c r="D101" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="E101" s="1">
         <v>44583.263668981483</v>
@@ -5796,7 +5808,7 @@
     </row>
     <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="B102" s="1">
         <v>43322.316527777781</v>
@@ -5805,7 +5817,7 @@
         <v>294</v>
       </c>
       <c r="D102" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="E102" s="1">
         <v>44583.265601851854</v>
@@ -5816,7 +5828,7 @@
     </row>
     <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B103" s="1">
         <v>42961.030127314814</v>
@@ -5825,7 +5837,7 @@
         <v>296</v>
       </c>
       <c r="D103" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E103" s="1">
         <v>43293.373692129629</v>
@@ -5836,7 +5848,7 @@
     </row>
     <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="B104" s="1">
         <v>43632.623368055552</v>
@@ -5845,7 +5857,7 @@
         <v>298</v>
       </c>
       <c r="D104" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="E104" s="1">
         <v>44169.666122685187</v>
@@ -5856,7 +5868,7 @@
     </row>
     <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="B105" s="1">
         <v>43950.154282407406</v>
@@ -5865,7 +5877,7 @@
         <v>299</v>
       </c>
       <c r="D105" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="E105" s="1">
         <v>44583.268333333333</v>
@@ -5874,9 +5886,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>915</v>
+        <v>906</v>
       </c>
       <c r="B106" s="1">
         <v>44091.240312499998</v>
@@ -5885,18 +5897,18 @@
         <v>300</v>
       </c>
       <c r="D106" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="E106" s="1">
         <v>43293.516805555555</v>
       </c>
       <c r="F106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B107" s="1">
         <v>43634.422546296293</v>
@@ -5905,7 +5917,7 @@
         <v>303</v>
       </c>
       <c r="D107" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="E107" s="1">
         <v>44583.271956018521</v>
@@ -5914,9 +5926,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>916</v>
+        <v>907</v>
       </c>
       <c r="B108" s="1">
         <v>44094.011354166665</v>
@@ -5925,18 +5937,18 @@
         <v>304</v>
       </c>
       <c r="D108" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E108" s="1">
         <v>43293.504270833335</v>
       </c>
       <c r="F108" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>917</v>
+        <v>908</v>
       </c>
       <c r="B109" s="1">
         <v>43952.528229166666</v>
@@ -5945,18 +5957,18 @@
         <v>306</v>
       </c>
       <c r="D109" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="E109" s="1">
         <v>43293.506678240738</v>
       </c>
       <c r="F109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B110" s="1">
         <v>43107.558159722219</v>
@@ -5965,7 +5977,7 @@
         <v>306</v>
       </c>
       <c r="D110" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E110" s="1">
         <v>43293.524571759262</v>
@@ -5976,7 +5988,7 @@
     </row>
     <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B111" s="1">
         <v>44086.935243055559</v>
@@ -5985,7 +5997,7 @@
         <v>306</v>
       </c>
       <c r="D111" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E111" s="1">
         <v>44583.28466435185</v>
@@ -5996,7 +6008,7 @@
     </row>
     <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B112" s="1">
         <v>44295.473298611112</v>
@@ -6005,7 +6017,7 @@
         <v>307</v>
       </c>
       <c r="D112" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="E112" s="1">
         <v>44295.476620370369</v>
@@ -6014,9 +6026,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>712</v>
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="3" t="s">
+        <v>706</v>
       </c>
       <c r="B113" s="1">
         <v>43434.820983796293</v>
@@ -6025,18 +6037,18 @@
         <v>308</v>
       </c>
       <c r="D113" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="E113" s="1">
         <v>43293.355775462966</v>
       </c>
       <c r="F113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="B114" s="1">
         <v>42935.703726851854</v>
@@ -6045,7 +6057,7 @@
         <v>309</v>
       </c>
       <c r="D114" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="E114" s="1">
         <v>43293.527037037034</v>
@@ -6054,9 +6066,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>532</v>
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="B115" s="1">
         <v>44498.705694444441</v>
@@ -6065,18 +6077,18 @@
         <v>312</v>
       </c>
       <c r="D115" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="E115" s="1">
         <v>43299.344282407408</v>
       </c>
       <c r="F115" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>636</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="2" t="s">
+        <v>631</v>
       </c>
       <c r="B116" s="1">
         <v>44252.785381944443</v>
@@ -6085,18 +6097,18 @@
         <v>313</v>
       </c>
       <c r="D116" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="E116" s="1">
         <v>43299.153900462959</v>
       </c>
       <c r="F116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B117" s="1">
         <v>43291.160381944443</v>
@@ -6105,7 +6117,7 @@
         <v>322</v>
       </c>
       <c r="D117" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E117" s="1">
         <v>43291.161539351851</v>
@@ -6114,9 +6126,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>802</v>
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
+        <v>795</v>
       </c>
       <c r="B118" s="1">
         <v>44088.282187500001</v>
@@ -6125,18 +6137,18 @@
         <v>330</v>
       </c>
       <c r="D118" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="E118" s="1">
         <v>43823.235995370371</v>
       </c>
       <c r="F118" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>192</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="B119" s="1">
         <v>44496.612962962965</v>
@@ -6145,18 +6157,18 @@
         <v>332</v>
       </c>
       <c r="D119" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E119" s="1">
         <v>44158.884085648147</v>
       </c>
       <c r="F119" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>792</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="3" t="s">
+        <v>909</v>
       </c>
       <c r="B120" s="1">
         <v>44099.152407407404</v>
@@ -6165,18 +6177,18 @@
         <v>333</v>
       </c>
       <c r="D120" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="E120" s="1">
         <v>43293.374178240738</v>
       </c>
       <c r="F120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="B121" s="1">
         <v>42970.800567129627</v>
@@ -6185,7 +6197,7 @@
         <v>338</v>
       </c>
       <c r="D121" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="E121" s="1">
         <v>43293.320393518516</v>
@@ -6196,7 +6208,7 @@
     </row>
     <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B122" s="1">
         <v>43293.495011574072</v>
@@ -6205,7 +6217,7 @@
         <v>346</v>
       </c>
       <c r="D122" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E122" s="1">
         <v>43293.49590277778</v>
@@ -6216,7 +6228,7 @@
     </row>
     <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B123" s="1">
         <v>42935.626446759263</v>
@@ -6225,7 +6237,7 @@
         <v>346</v>
       </c>
       <c r="D123" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E123" s="1">
         <v>43293.519502314812</v>
@@ -6234,9 +6246,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>227</v>
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="3" t="s">
+        <v>910</v>
       </c>
       <c r="B124" s="1">
         <v>43342.441863425927</v>
@@ -6245,18 +6257,18 @@
         <v>348</v>
       </c>
       <c r="D124" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E124" s="1">
         <v>43293.313252314816</v>
       </c>
       <c r="F124" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>68</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="2" t="s">
+        <v>911</v>
       </c>
       <c r="B125" s="1">
         <v>44243.465277777781</v>
@@ -6265,18 +6277,18 @@
         <v>363</v>
       </c>
       <c r="D125" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E125" s="1">
         <v>43293.297060185185</v>
       </c>
       <c r="F125" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>346</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="2" t="s">
+        <v>912</v>
       </c>
       <c r="B126" s="1">
         <v>43724.313287037039</v>
@@ -6285,18 +6297,18 @@
         <v>364</v>
       </c>
       <c r="D126" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="E126" s="1">
         <v>43285.372245370374</v>
       </c>
       <c r="F126" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>275</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="3" t="s">
+        <v>913</v>
       </c>
       <c r="B127" s="1">
         <v>43821.852152777778</v>
@@ -6305,13 +6317,13 @@
         <v>366</v>
       </c>
       <c r="D127" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E127" s="1">
         <v>42964.492430555554</v>
       </c>
       <c r="F127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -6334,9 +6346,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>804</v>
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="3" t="s">
+        <v>914</v>
       </c>
       <c r="B129" s="1">
         <v>44498.70590277778</v>
@@ -6345,18 +6357,18 @@
         <v>374</v>
       </c>
       <c r="D129" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="E129" s="1">
         <v>43299.34238425926</v>
       </c>
       <c r="F129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>682</v>
+        <v>915</v>
       </c>
       <c r="B130" s="1">
         <v>44011.534050925926</v>
@@ -6365,7 +6377,7 @@
         <v>377</v>
       </c>
       <c r="D130" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="E130" s="1">
         <v>43823.222199074073</v>
@@ -6376,7 +6388,7 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="B131" s="1">
         <v>43724.314074074071</v>
@@ -6385,7 +6397,7 @@
         <v>383</v>
       </c>
       <c r="D131" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="E131" s="1">
         <v>43285.378634259258</v>
@@ -6396,7 +6408,7 @@
     </row>
     <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="B132" s="1">
         <v>42982.781168981484</v>
@@ -6405,7 +6417,7 @@
         <v>383</v>
       </c>
       <c r="D132" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="E132" s="1">
         <v>43293.515625</v>
@@ -6416,7 +6428,7 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B133" s="1">
         <v>44270.470358796294</v>
@@ -6425,7 +6437,7 @@
         <v>392</v>
       </c>
       <c r="D133" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="E133" s="1">
         <v>42964.483032407406</v>
@@ -6436,7 +6448,7 @@
     </row>
     <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B134" s="1">
         <v>42982.541516203702</v>
@@ -6445,7 +6457,7 @@
         <v>393</v>
       </c>
       <c r="D134" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E134" s="1">
         <v>43293.312824074077</v>
@@ -6456,7 +6468,7 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B135" s="1">
         <v>44498.705659722225</v>
@@ -6465,7 +6477,7 @@
         <v>399</v>
       </c>
       <c r="D135" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E135" s="1">
         <v>43299.326979166668</v>
@@ -6476,7 +6488,7 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B136" s="1">
         <v>44163.312268518515</v>
@@ -6485,7 +6497,7 @@
         <v>409</v>
       </c>
       <c r="D136" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E136" s="1">
         <v>43274.370972222219</v>
@@ -6496,7 +6508,7 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="B137" s="1">
         <v>44498.705590277779</v>
@@ -6505,7 +6517,7 @@
         <v>410</v>
       </c>
       <c r="D137" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="E137" s="1">
         <v>42982.830277777779</v>
@@ -6516,7 +6528,7 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="B138" s="1">
         <v>43957.929606481484</v>
@@ -6525,7 +6537,7 @@
         <v>415</v>
       </c>
       <c r="D138" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="E138" s="1">
         <v>42961.738240740742</v>
@@ -6536,7 +6548,7 @@
     </row>
     <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="B139" s="1">
         <v>43298.889502314814</v>
@@ -6545,7 +6557,7 @@
         <v>419</v>
       </c>
       <c r="D139" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="E139" s="1">
         <v>43298.889699074076</v>
@@ -6556,7 +6568,7 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B140" s="1">
         <v>44388.915937500002</v>
@@ -6565,7 +6577,7 @@
         <v>427</v>
       </c>
       <c r="D140" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E140" s="1">
         <v>43299.988078703704</v>
@@ -6576,7 +6588,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="B141" s="1">
         <v>43554.539178240739</v>
@@ -6585,7 +6597,7 @@
         <v>430</v>
       </c>
       <c r="D141" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="E141" s="1">
         <v>43295.064027777778</v>
@@ -6596,7 +6608,7 @@
     </row>
     <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="B142" s="1">
         <v>42980.714305555557</v>
@@ -6605,7 +6617,7 @@
         <v>435</v>
       </c>
       <c r="D142" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="E142" s="1">
         <v>43299.992905092593</v>
@@ -6616,7 +6628,7 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="B143" s="1">
         <v>44085.922407407408</v>
@@ -6625,7 +6637,7 @@
         <v>455</v>
       </c>
       <c r="D143" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="E143" s="1">
         <v>43587.823113425926</v>
@@ -6636,7 +6648,7 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B144" s="1">
         <v>43958.732002314813</v>
@@ -6645,7 +6657,7 @@
         <v>459</v>
       </c>
       <c r="D144" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E144" s="1">
         <v>43029.542534722219</v>
@@ -6656,7 +6668,7 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="B145" s="1">
         <v>44475.427997685183</v>
@@ -6665,7 +6677,7 @@
         <v>465</v>
       </c>
       <c r="D145" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="E145" s="1">
         <v>42987.673993055556</v>
@@ -6676,7 +6688,7 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B146" s="1">
         <v>43724.226597222223</v>
@@ -6685,7 +6697,7 @@
         <v>477</v>
       </c>
       <c r="D146" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E146" s="1">
         <v>42980.818194444444</v>
@@ -6696,7 +6708,7 @@
     </row>
     <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B147" s="1">
         <v>43473.257233796299</v>
@@ -6705,7 +6717,7 @@
         <v>480</v>
       </c>
       <c r="D147" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E147" s="1">
         <v>43473.258217592593</v>
@@ -6716,7 +6728,7 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="B148" s="1">
         <v>44105.650960648149</v>
@@ -6725,7 +6737,7 @@
         <v>501</v>
       </c>
       <c r="D148" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="E148" s="1">
         <v>43279.236018518517</v>
@@ -6736,7 +6748,7 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B149" s="1">
         <v>44575.796076388891</v>
@@ -6745,7 +6757,7 @@
         <v>505</v>
       </c>
       <c r="D149" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E149" s="1">
         <v>43293.393368055556</v>
@@ -6756,7 +6768,7 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="B150" s="1">
         <v>43724.217303240737</v>
@@ -6765,7 +6777,7 @@
         <v>530</v>
       </c>
       <c r="D150" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="E150" s="1">
         <v>43094.566064814811</v>
@@ -6776,7 +6788,7 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>899</v>
+        <v>890</v>
       </c>
       <c r="B151" s="1">
         <v>43957.428159722222</v>
@@ -6785,7 +6797,7 @@
         <v>531</v>
       </c>
       <c r="D151" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
       <c r="F151" t="b">
         <v>1</v>
@@ -6793,7 +6805,7 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B152" s="1">
         <v>43137.52753472222</v>
@@ -6802,7 +6814,7 @@
         <v>554</v>
       </c>
       <c r="D152" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E152" s="1">
         <v>42964.494780092595</v>
@@ -6813,7 +6825,7 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="B153" s="1">
         <v>43440.503703703704</v>
@@ -6822,7 +6834,7 @@
         <v>566</v>
       </c>
       <c r="D153" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="E153" s="1">
         <v>43268.582199074073</v>
@@ -6833,7 +6845,7 @@
     </row>
     <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B154" s="1">
         <v>44058.131331018521</v>
@@ -6842,7 +6854,7 @@
         <v>569</v>
       </c>
       <c r="D154" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E154" s="1">
         <v>44470.729039351849</v>
@@ -6853,7 +6865,7 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="B155" s="1">
         <v>44475.427986111114</v>
@@ -6862,7 +6874,7 @@
         <v>575</v>
       </c>
       <c r="D155" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="E155" s="1">
         <v>43292.486226851855</v>
@@ -6873,7 +6885,7 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B156" s="1">
         <v>44090.788576388892</v>
@@ -6882,7 +6894,7 @@
         <v>592</v>
       </c>
       <c r="D156" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E156" s="1">
         <v>43274.371087962965</v>
@@ -6893,7 +6905,7 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="B157" s="1">
         <v>44498.705474537041</v>
@@ -6902,7 +6914,7 @@
         <v>595</v>
       </c>
       <c r="D157" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="E157" s="1">
         <v>42961.743252314816</v>
@@ -6913,7 +6925,7 @@
     </row>
     <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="B158" s="1">
         <v>44274.629016203704</v>
@@ -6922,7 +6934,7 @@
         <v>600</v>
       </c>
       <c r="D158" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="E158" s="1">
         <v>44274.629259259258</v>
@@ -6933,7 +6945,7 @@
     </row>
     <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="B159" s="1">
         <v>43523.418275462966</v>
@@ -6942,7 +6954,7 @@
         <v>608</v>
       </c>
       <c r="D159" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="E159" s="1">
         <v>44060.558900462966</v>
@@ -6953,7 +6965,7 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B160" s="1">
         <v>44498.70553240741</v>
@@ -6962,7 +6974,7 @@
         <v>613</v>
       </c>
       <c r="D160" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E160" s="1">
         <v>43300.157986111109</v>
@@ -6973,7 +6985,7 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B161" s="1">
         <v>44234.4843287037</v>
@@ -6982,7 +6994,7 @@
         <v>638</v>
       </c>
       <c r="D161" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E161" s="1">
         <v>43298.369409722225</v>
@@ -6993,7 +7005,7 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B162" s="1">
         <v>43724.428599537037</v>
@@ -7002,7 +7014,7 @@
         <v>641</v>
       </c>
       <c r="D162" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E162" s="1">
         <v>42987.672511574077</v>
@@ -7013,7 +7025,7 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B163" s="1">
         <v>44270.499594907407</v>
@@ -7022,7 +7034,7 @@
         <v>644</v>
       </c>
       <c r="D163" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="E163" s="1">
         <v>42964.4841087963</v>
@@ -7033,7 +7045,7 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B164" s="1">
         <v>44091.013298611113</v>
@@ -7042,7 +7054,7 @@
         <v>652</v>
       </c>
       <c r="D164" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E164" s="1">
         <v>43292.392025462963</v>
@@ -7053,7 +7065,7 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B165" s="1">
         <v>43440.502581018518</v>
@@ -7062,7 +7074,7 @@
         <v>657</v>
       </c>
       <c r="D165" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="E165" s="1">
         <v>43268.653101851851</v>
@@ -7073,7 +7085,7 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="B166" s="1">
         <v>44085.892847222225</v>
@@ -7082,7 +7094,7 @@
         <v>660</v>
       </c>
       <c r="D166" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="E166" s="1">
         <v>43490.839247685188</v>
@@ -7093,7 +7105,7 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B167" s="1">
         <v>43311.752615740741</v>
@@ -7102,7 +7114,7 @@
         <v>662</v>
       </c>
       <c r="D167" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E167" s="1">
         <v>42964.44394675926</v>
@@ -7113,7 +7125,7 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="B168" s="1">
         <v>43337.443576388891</v>
@@ -7122,7 +7134,7 @@
         <v>666</v>
       </c>
       <c r="D168" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="E168" s="1">
         <v>42987.682476851849</v>
@@ -7133,7 +7145,7 @@
     </row>
     <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B169" s="1">
         <v>43135.551053240742</v>
@@ -7142,7 +7154,7 @@
         <v>683</v>
       </c>
       <c r="D169" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E169" s="1">
         <v>43290.108356481483</v>
@@ -7173,7 +7185,7 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="B171" s="1">
         <v>43380.617418981485</v>
@@ -7182,7 +7194,7 @@
         <v>711</v>
       </c>
       <c r="D171" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="E171" s="1">
         <v>43298.596041666664</v>
@@ -7193,7 +7205,7 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="B172" s="1">
         <v>43958.73228009259</v>
@@ -7202,7 +7214,7 @@
         <v>734</v>
       </c>
       <c r="D172" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="E172" s="1">
         <v>42961.740347222221</v>
@@ -7213,7 +7225,7 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="B173" s="1">
         <v>44056.398715277777</v>
@@ -7222,7 +7234,7 @@
         <v>737</v>
       </c>
       <c r="D173" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="E173" s="1">
         <v>43300.345069444447</v>
@@ -7233,7 +7245,7 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B174" s="1">
         <v>44498.705879629626</v>
@@ -7242,7 +7254,7 @@
         <v>739</v>
       </c>
       <c r="D174" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E174" s="1">
         <v>43300.313900462963</v>
@@ -7253,7 +7265,7 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>900</v>
+        <v>891</v>
       </c>
       <c r="B175" s="1">
         <v>43179.851631944446</v>
@@ -7262,7 +7274,7 @@
         <v>762</v>
       </c>
       <c r="D175" t="s">
-        <v>893</v>
+        <v>884</v>
       </c>
       <c r="F175" t="b">
         <v>1</v>
@@ -7270,7 +7282,7 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B176" s="1">
         <v>43567.186493055553</v>
@@ -7279,7 +7291,7 @@
         <v>763</v>
       </c>
       <c r="D176" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E176" s="1">
         <v>43524.518090277779</v>
@@ -7290,7 +7302,7 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="B177" s="1">
         <v>44498.705752314818</v>
@@ -7299,7 +7311,7 @@
         <v>764</v>
       </c>
       <c r="D177" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="E177" s="1">
         <v>43307.114652777775</v>
@@ -7310,7 +7322,7 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="B178" s="1">
         <v>44176.795972222222</v>
@@ -7319,7 +7331,7 @@
         <v>775</v>
       </c>
       <c r="D178" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="E178" s="1">
         <v>43522.724953703706</v>
@@ -7330,7 +7342,7 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="B179" s="1">
         <v>44498.705520833333</v>
@@ -7339,7 +7351,7 @@
         <v>776</v>
       </c>
       <c r="D179" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="E179" s="1">
         <v>43300.116932870369</v>
@@ -7350,7 +7362,7 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="B180" s="1">
         <v>44256.496215277781</v>
@@ -7359,7 +7371,7 @@
         <v>788</v>
       </c>
       <c r="D180" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="E180" s="1">
         <v>43294.354050925926</v>
@@ -7370,7 +7382,7 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>901</v>
+        <v>892</v>
       </c>
       <c r="B181" s="1">
         <v>44256.508842592593</v>
@@ -7379,7 +7391,7 @@
         <v>790</v>
       </c>
       <c r="D181" t="s">
-        <v>891</v>
+        <v>882</v>
       </c>
       <c r="F181" t="b">
         <v>1</v>
@@ -7387,7 +7399,7 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="B182" s="1">
         <v>44090.803831018522</v>
@@ -7396,7 +7408,7 @@
         <v>791</v>
       </c>
       <c r="D182" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="E182" s="1">
         <v>42987.684583333335</v>
@@ -7407,7 +7419,7 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B183" s="1">
         <v>44470.718009259261</v>
@@ -7416,7 +7428,7 @@
         <v>800</v>
       </c>
       <c r="D183" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="E183" s="1">
         <v>42964.442962962959</v>
@@ -7427,7 +7439,7 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B184" s="1">
         <v>44083.89271990741</v>
@@ -7436,7 +7448,7 @@
         <v>804</v>
       </c>
       <c r="D184" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E184" s="1">
         <v>43307.16028935185</v>
@@ -7447,7 +7459,7 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B185" s="1">
         <v>44498.705578703702</v>
@@ -7456,7 +7468,7 @@
         <v>810</v>
       </c>
       <c r="D185" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="E185" s="1">
         <v>43307.095057870371</v>
@@ -7467,7 +7479,7 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B186" s="1">
         <v>44498.705462962964</v>
@@ -7476,7 +7488,7 @@
         <v>816</v>
       </c>
       <c r="D186" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="E186" s="1">
         <v>43307.101921296293</v>
@@ -7487,7 +7499,7 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B187" s="1">
         <v>43567.186643518522</v>
@@ -7496,7 +7508,7 @@
         <v>817</v>
       </c>
       <c r="D187" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E187" s="1">
         <v>43524.518090277779</v>
@@ -7507,7 +7519,7 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="B188" s="1">
         <v>43838.720266203702</v>
@@ -7516,7 +7528,7 @@
         <v>829</v>
       </c>
       <c r="D188" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="E188" s="1">
         <v>43298.429131944446</v>
@@ -7527,7 +7539,7 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B189" s="1">
         <v>44200.503032407411</v>
@@ -7536,7 +7548,7 @@
         <v>830</v>
       </c>
       <c r="D189" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E189" s="1">
         <v>43299.215092592596</v>
@@ -7547,19 +7559,19 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B190" s="1">
-        <v>44190.787106481483</v>
+        <v>44190.787326388891</v>
       </c>
       <c r="C190">
         <v>832</v>
       </c>
       <c r="D190" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E190" s="1">
-        <v>43299.216747685183</v>
+        <v>43299.217511574076</v>
       </c>
       <c r="F190" t="b">
         <v>1</v>
@@ -7567,19 +7579,19 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B191" s="1">
-        <v>44190.787326388891</v>
+        <v>44190.787106481483</v>
       </c>
       <c r="C191">
         <v>832</v>
       </c>
       <c r="D191" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="E191" s="1">
-        <v>43299.217511574076</v>
+        <v>43299.216747685183</v>
       </c>
       <c r="F191" t="b">
         <v>1</v>
@@ -7587,7 +7599,7 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B192" s="1">
         <v>43437.503379629627</v>
@@ -7596,7 +7608,7 @@
         <v>833</v>
       </c>
       <c r="D192" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E192" s="1">
         <v>43424.56621527778</v>
@@ -7607,7 +7619,7 @@
     </row>
     <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="B193" s="1">
         <v>43993.38380787037</v>
@@ -7616,7 +7628,7 @@
         <v>835</v>
       </c>
       <c r="D193" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="E193" s="1">
         <v>44170.068391203706</v>
@@ -7627,7 +7639,7 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="B194" s="1">
         <v>43562.521284722221</v>
@@ -7636,7 +7648,7 @@
         <v>840</v>
       </c>
       <c r="D194" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="E194" s="1">
         <v>42987.68378472222</v>
@@ -7647,7 +7659,7 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B195" s="1">
         <v>43914.630648148152</v>
@@ -7656,7 +7668,7 @@
         <v>853</v>
       </c>
       <c r="D195" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="E195" s="1">
         <v>43293.403391203705</v>
@@ -7667,7 +7679,7 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B196" s="1">
         <v>43558.893310185187</v>
@@ -7676,7 +7688,7 @@
         <v>880</v>
       </c>
       <c r="D196" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E196" s="1">
         <v>42987.672500000001</v>
@@ -7687,7 +7699,7 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="B197" s="1">
         <v>44091.261006944442</v>
@@ -7696,7 +7708,7 @@
         <v>881</v>
       </c>
       <c r="D197" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="E197" s="1">
         <v>42964.48914351852</v>
@@ -7707,7 +7719,7 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B198" s="1">
         <v>44498.705717592595</v>
@@ -7716,7 +7728,7 @@
         <v>887</v>
       </c>
       <c r="D198" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E198" s="1">
         <v>43601.564976851849</v>
@@ -7727,7 +7739,7 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B199" s="1">
         <v>43930.024826388886</v>
@@ -7736,7 +7748,7 @@
         <v>890</v>
       </c>
       <c r="D199" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="E199" s="1">
         <v>43285.382094907407</v>
@@ -7747,7 +7759,7 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="B200" s="1">
         <v>43724.301539351851</v>
@@ -7756,7 +7768,7 @@
         <v>902</v>
       </c>
       <c r="D200" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="E200" s="1">
         <v>43271.303888888891</v>
@@ -7767,7 +7779,7 @@
     </row>
     <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="B201" s="1">
         <v>44061.021111111113</v>
@@ -7776,7 +7788,7 @@
         <v>904</v>
       </c>
       <c r="D201" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="E201" s="1">
         <v>44295.478645833333</v>
@@ -7787,7 +7799,7 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B202" s="1">
         <v>44060.187627314815</v>
@@ -7796,7 +7808,7 @@
         <v>913</v>
       </c>
       <c r="D202" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E202" s="1">
         <v>42964.482314814813</v>
@@ -7827,7 +7839,7 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B204" s="1">
         <v>44274.598611111112</v>
@@ -7836,7 +7848,7 @@
         <v>934</v>
       </c>
       <c r="D204" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E204" s="1">
         <v>43274.371342592596</v>
@@ -7847,7 +7859,7 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="B205" s="1">
         <v>44086.981041666666</v>
@@ -7856,7 +7868,7 @@
         <v>935</v>
       </c>
       <c r="D205" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="E205" s="1">
         <v>43790.170347222222</v>
@@ -7867,7 +7879,7 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B206" s="1">
         <v>44498.705625000002</v>
@@ -7876,7 +7888,7 @@
         <v>953</v>
       </c>
       <c r="D206" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E206" s="1">
         <v>43300.118981481479</v>
@@ -7887,7 +7899,7 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="B207" s="1">
         <v>44498.705740740741</v>
@@ -7896,7 +7908,7 @@
         <v>958</v>
       </c>
       <c r="D207" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="E207" s="1">
         <v>43307.125057870369</v>
@@ -7907,7 +7919,7 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="B208" s="1">
         <v>44256.496192129627</v>
@@ -7916,7 +7928,7 @@
         <v>963</v>
       </c>
       <c r="D208" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="E208" s="1">
         <v>43274.38689814815</v>
@@ -7927,7 +7939,7 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="B209" s="1">
         <v>44269.545208333337</v>
@@ -7936,7 +7948,7 @@
         <v>979</v>
       </c>
       <c r="D209" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="E209" s="1">
         <v>43299.155995370369</v>
@@ -7947,7 +7959,7 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>902</v>
+        <v>893</v>
       </c>
       <c r="B210" s="1">
         <v>42972.794988425929</v>
@@ -7956,7 +7968,7 @@
         <v>982</v>
       </c>
       <c r="D210" t="s">
-        <v>896</v>
+        <v>887</v>
       </c>
       <c r="F210" t="b">
         <v>1</v>
@@ -7964,7 +7976,7 @@
     </row>
     <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="B211" s="1">
         <v>44084.343807870369</v>
@@ -7973,7 +7985,7 @@
         <v>1015</v>
       </c>
       <c r="D211" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="E211" s="1">
         <v>44295.478634259256</v>
@@ -7984,7 +7996,7 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B212" s="1">
         <v>44086.980011574073</v>
@@ -7993,7 +8005,7 @@
         <v>1034</v>
       </c>
       <c r="D212" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E212" s="1">
         <v>43270.143495370372</v>
@@ -8004,7 +8016,7 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B213" s="1">
         <v>43957.415150462963</v>
@@ -8013,7 +8025,7 @@
         <v>1049</v>
       </c>
       <c r="D213" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E213" s="1">
         <v>42988.758449074077</v>
@@ -8024,7 +8036,7 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B214" s="1">
         <v>43724.187800925924</v>
@@ -8033,7 +8045,7 @@
         <v>1062</v>
       </c>
       <c r="D214" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E214" s="1">
         <v>43270.380949074075</v>
@@ -8044,19 +8056,19 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>616</v>
+        <v>557</v>
       </c>
       <c r="B215" s="1">
-        <v>43453.741412037038</v>
+        <v>44498.705775462964</v>
       </c>
       <c r="C215">
         <v>1068</v>
       </c>
       <c r="D215" t="s">
-        <v>617</v>
+        <v>558</v>
       </c>
       <c r="E215" s="1">
-        <v>43285.375150462962</v>
+        <v>43307.129317129627</v>
       </c>
       <c r="F215" t="b">
         <v>1</v>
@@ -8064,19 +8076,19 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>562</v>
+        <v>611</v>
       </c>
       <c r="B216" s="1">
-        <v>44498.705775462964</v>
+        <v>43453.741412037038</v>
       </c>
       <c r="C216">
         <v>1068</v>
       </c>
       <c r="D216" t="s">
-        <v>563</v>
+        <v>612</v>
       </c>
       <c r="E216" s="1">
-        <v>43307.129317129627</v>
+        <v>43285.375150462962</v>
       </c>
       <c r="F216" t="b">
         <v>1</v>
@@ -8084,7 +8096,7 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="B217" s="1">
         <v>43724.171793981484</v>
@@ -8093,7 +8105,7 @@
         <v>1074</v>
       </c>
       <c r="D217" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="E217" s="1">
         <v>43299.360578703701</v>
@@ -8104,7 +8116,7 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="B218" s="1">
         <v>44266.721076388887</v>
@@ -8113,7 +8125,7 @@
         <v>1080</v>
       </c>
       <c r="D218" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="E218" s="1">
         <v>43307.1565625</v>
@@ -8124,7 +8136,7 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="B219" s="1">
         <v>44190.241597222222</v>
@@ -8133,7 +8145,7 @@
         <v>1083</v>
       </c>
       <c r="D219" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="E219" s="1">
         <v>43299.209108796298</v>
@@ -8164,7 +8176,7 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B221" s="1">
         <v>44498.705821759257</v>
@@ -8173,7 +8185,7 @@
         <v>1115</v>
       </c>
       <c r="D221" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E221" s="1">
         <v>43300.078599537039</v>
@@ -8184,7 +8196,7 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="B222" s="1">
         <v>44190.241805555554</v>
@@ -8193,7 +8205,7 @@
         <v>1131</v>
       </c>
       <c r="D222" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="E222" s="1">
         <v>43299.213136574072</v>
@@ -8204,7 +8216,7 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B223" s="1">
         <v>43721.991041666668</v>
@@ -8213,7 +8225,7 @@
         <v>1137</v>
       </c>
       <c r="D223" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="E223" s="1">
         <v>43298.344039351854</v>
@@ -8224,7 +8236,7 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B224" s="1">
         <v>44565.553078703706</v>
@@ -8233,7 +8245,7 @@
         <v>1147</v>
       </c>
       <c r="D224" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="E224" s="1">
         <v>44414.733032407406</v>
@@ -8244,7 +8256,7 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B225" s="1">
         <v>44505.423530092594</v>
@@ -8253,7 +8265,7 @@
         <v>1161</v>
       </c>
       <c r="D225" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="E225" s="1">
         <v>43522.720995370371</v>
@@ -8264,7 +8276,7 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B226" s="1">
         <v>44498.705555555556</v>
@@ -8273,7 +8285,7 @@
         <v>1164</v>
       </c>
       <c r="D226" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E226" s="1">
         <v>43299.330127314817</v>
@@ -8284,7 +8296,7 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B227" s="1">
         <v>44565.553194444445</v>
@@ -8293,7 +8305,7 @@
         <v>1180</v>
       </c>
       <c r="D227" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="E227" s="1">
         <v>44414.734050925923</v>
@@ -8324,7 +8336,7 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B229" s="1">
         <v>44160.64230324074</v>
@@ -8333,7 +8345,7 @@
         <v>1200</v>
       </c>
       <c r="D229" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E229" s="1">
         <v>43306.15587962963</v>
@@ -8344,7 +8356,7 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B230" s="1">
         <v>44098.084386574075</v>
@@ -8353,7 +8365,7 @@
         <v>1208</v>
       </c>
       <c r="D230" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E230" s="1">
         <v>43421.500509259262</v>
@@ -8364,7 +8376,7 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="B231" s="1">
         <v>44082.631782407407</v>
@@ -8373,7 +8385,7 @@
         <v>1213</v>
       </c>
       <c r="D231" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="E231" s="1">
         <v>43285.34175925926</v>
@@ -8384,7 +8396,7 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B232" s="1">
         <v>44082.632384259261</v>
@@ -8393,7 +8405,7 @@
         <v>1220</v>
       </c>
       <c r="D232" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E232" s="1">
         <v>43285.341793981483</v>
@@ -8404,7 +8416,7 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B233" s="1">
         <v>44101.078009259261</v>
@@ -8413,7 +8425,7 @@
         <v>1227</v>
       </c>
       <c r="D233" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E233" s="1">
         <v>42988.517418981479</v>
@@ -8424,7 +8436,7 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="B234" s="1">
         <v>44498.705925925926</v>
@@ -8433,7 +8445,7 @@
         <v>1229</v>
       </c>
       <c r="D234" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="E234" s="1">
         <v>43300.088703703703</v>
@@ -8444,7 +8456,7 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B235" s="1">
         <v>44086.980868055558</v>
@@ -8453,7 +8465,7 @@
         <v>1271</v>
       </c>
       <c r="D235" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E235" s="1">
         <v>43270.141828703701</v>
@@ -8464,7 +8476,7 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="B236" s="1">
         <v>44498.705636574072</v>
@@ -8473,7 +8485,7 @@
         <v>1299</v>
       </c>
       <c r="D236" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="E236" s="1">
         <v>43299.31113425926</v>
@@ -8484,7 +8496,7 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>903</v>
+        <v>894</v>
       </c>
       <c r="B237" s="1">
         <v>43582.859861111108</v>
@@ -8493,7 +8505,7 @@
         <v>1307</v>
       </c>
       <c r="D237" t="s">
-        <v>866</v>
+        <v>858</v>
       </c>
       <c r="F237" t="b">
         <v>1</v>
@@ -8501,7 +8513,7 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B238" s="1">
         <v>44020.297106481485</v>
@@ -8510,7 +8522,7 @@
         <v>1308</v>
       </c>
       <c r="D238" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E238" s="1">
         <v>42964.485486111109</v>
@@ -8521,7 +8533,7 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="B239" s="1">
         <v>44190.241099537037</v>
@@ -8530,7 +8542,7 @@
         <v>1309</v>
       </c>
       <c r="D239" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="E239" s="1">
         <v>43299.207453703704</v>
@@ -8541,7 +8553,7 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="B240" s="1">
         <v>43492.961099537039</v>
@@ -8550,7 +8562,7 @@
         <v>1325</v>
       </c>
       <c r="D240" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="E240" s="1">
         <v>43298.357777777775</v>
@@ -8561,7 +8573,7 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B241" s="1">
         <v>44058.119155092594</v>
@@ -8570,7 +8582,7 @@
         <v>1333</v>
       </c>
       <c r="D241" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="E241" s="1">
         <v>43307.140162037038</v>
@@ -8581,7 +8593,7 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B242" s="1">
         <v>44496.601909722223</v>
@@ -8590,7 +8602,7 @@
         <v>1339</v>
       </c>
       <c r="D242" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E242" s="1">
         <v>43421.50105324074</v>
@@ -8601,7 +8613,7 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>904</v>
+        <v>895</v>
       </c>
       <c r="B243" s="1">
         <v>44215.681377314817</v>
@@ -8610,7 +8622,7 @@
         <v>1341</v>
       </c>
       <c r="D243" t="s">
-        <v>892</v>
+        <v>883</v>
       </c>
       <c r="F243" t="b">
         <v>1</v>
@@ -8618,7 +8630,7 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="B244" s="1">
         <v>43725.471724537034</v>
@@ -8627,7 +8639,7 @@
         <v>1345</v>
       </c>
       <c r="D244" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="E244" s="1">
         <v>43522.721215277779</v>
@@ -8638,7 +8650,7 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="B245" s="1">
         <v>43594.298032407409</v>
@@ -8647,7 +8659,7 @@
         <v>1350</v>
       </c>
       <c r="D245" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
       <c r="E245" s="1">
         <v>43524.517835648148</v>
@@ -8658,7 +8670,7 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="B246" s="1">
         <v>44116.126261574071</v>
@@ -8667,7 +8679,7 @@
         <v>1357</v>
       </c>
       <c r="D246" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="E246" s="1">
         <v>43307.146504629629</v>
@@ -8678,7 +8690,7 @@
     </row>
     <row r="247" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B247" s="1">
         <v>43566.491851851853</v>
@@ -8687,7 +8699,7 @@
         <v>1358</v>
       </c>
       <c r="D247" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E247" s="1">
         <v>43790.262048611112</v>
@@ -8698,7 +8710,7 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B248" s="1">
         <v>44270.10596064815</v>
@@ -8707,7 +8719,7 @@
         <v>1366</v>
       </c>
       <c r="D248" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="E248" s="1">
         <v>43271.272592592592</v>
@@ -8718,7 +8730,7 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="B249" s="1">
         <v>44517.630833333336</v>
@@ -8727,7 +8739,7 @@
         <v>1370</v>
       </c>
       <c r="D249" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="E249" s="1">
         <v>43299.167048611111</v>
@@ -8738,7 +8750,7 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B250" s="1">
         <v>44498.705972222226</v>
@@ -8747,7 +8759,7 @@
         <v>1382</v>
       </c>
       <c r="D250" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E250" s="1">
         <v>43300.131354166668</v>
@@ -8758,7 +8770,7 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B251" s="1">
         <v>43724.649733796294</v>
@@ -8767,7 +8779,7 @@
         <v>1389</v>
       </c>
       <c r="D251" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E251" s="1">
         <v>43522.725462962961</v>
@@ -8778,7 +8790,7 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="B252" s="1">
         <v>44090.348634259259</v>
@@ -8787,7 +8799,7 @@
         <v>1398</v>
       </c>
       <c r="D252" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="E252" s="1">
         <v>42980.823483796295</v>
@@ -8798,7 +8810,7 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="B253" s="1">
         <v>44295.39571759259</v>
@@ -8807,7 +8819,7 @@
         <v>1411</v>
       </c>
       <c r="D253" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="E253" s="1">
         <v>43978.451597222222</v>
@@ -8818,7 +8830,7 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="B254" s="1">
         <v>43745.858252314814</v>
@@ -8827,7 +8839,7 @@
         <v>1412</v>
       </c>
       <c r="D254" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="E254" s="1">
         <v>43419.552187499998</v>
@@ -8838,7 +8850,7 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B255" s="1">
         <v>44498.705868055556</v>
@@ -8847,7 +8859,7 @@
         <v>1424</v>
       </c>
       <c r="D255" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E255" s="1">
         <v>44498.697372685187</v>
@@ -8858,7 +8870,7 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B256" s="1">
         <v>43723.354722222219</v>
@@ -8867,7 +8879,7 @@
         <v>1433</v>
       </c>
       <c r="D256" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E256" s="1">
         <v>43270.195173611108</v>
@@ -8878,7 +8890,7 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="B257" s="1">
         <v>44279.733518518522</v>
@@ -8887,7 +8899,7 @@
         <v>1459</v>
       </c>
       <c r="D257" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="E257" s="1">
         <v>43279.301261574074</v>
@@ -8898,7 +8910,7 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B258" s="1">
         <v>44515.027268518519</v>
@@ -8907,7 +8919,7 @@
         <v>1466</v>
       </c>
       <c r="D258" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E258" s="1">
         <v>42980.800891203704</v>
@@ -8918,7 +8930,7 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>905</v>
+        <v>896</v>
       </c>
       <c r="B259" s="1">
         <v>44378.706516203703</v>
@@ -8927,7 +8939,7 @@
         <v>1477</v>
       </c>
       <c r="D259" t="s">
-        <v>871</v>
+        <v>863</v>
       </c>
       <c r="F259" t="b">
         <v>1</v>
@@ -8935,7 +8947,7 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="B260" s="1">
         <v>43724.30097222222</v>
@@ -8944,7 +8956,7 @@
         <v>1479</v>
       </c>
       <c r="D260" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="E260" s="1">
         <v>43270.377395833333</v>
@@ -8955,7 +8967,7 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B261" s="1">
         <v>43934.98196759259</v>
@@ -8964,7 +8976,7 @@
         <v>1498</v>
       </c>
       <c r="D261" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E261" s="1">
         <v>42988.403622685182</v>
@@ -8975,7 +8987,7 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B262" s="1">
         <v>43855.822881944441</v>
@@ -8984,7 +8996,7 @@
         <v>1504</v>
       </c>
       <c r="D262" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E262" s="1">
         <v>43305.068865740737</v>
@@ -8995,7 +9007,7 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B263" s="1">
         <v>44266.722951388889</v>
@@ -9004,7 +9016,7 @@
         <v>1507</v>
       </c>
       <c r="D263" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E263" s="1">
         <v>43305.06722222222</v>
@@ -9015,7 +9027,7 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B264" s="1">
         <v>43724.311736111114</v>
@@ -9024,7 +9036,7 @@
         <v>1529</v>
       </c>
       <c r="D264" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E264" s="1">
         <v>43285.369120370371</v>
@@ -9035,7 +9047,7 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B265" s="1">
         <v>44269.54959490741</v>
@@ -9044,7 +9056,7 @@
         <v>1533</v>
       </c>
       <c r="D265" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E265" s="1">
         <v>43271.283877314818</v>
@@ -9075,7 +9087,7 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="B267" s="1">
         <v>43724.187511574077</v>
@@ -9084,7 +9096,7 @@
         <v>1554</v>
       </c>
       <c r="D267" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="E267" s="1">
         <v>43270.364791666667</v>
@@ -9095,7 +9107,7 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B268" s="1">
         <v>43951.98814814815</v>
@@ -9104,7 +9116,7 @@
         <v>1577</v>
       </c>
       <c r="D268" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E268" s="1">
         <v>43014.346597222226</v>
@@ -9115,19 +9127,19 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>584</v>
+        <v>270</v>
       </c>
       <c r="B269" s="1">
-        <v>44190.785381944443</v>
+        <v>44498.705949074072</v>
       </c>
       <c r="C269">
         <v>1581</v>
       </c>
       <c r="D269" t="s">
-        <v>585</v>
+        <v>271</v>
       </c>
       <c r="E269" s="1">
-        <v>43299.269375000003</v>
+        <v>43300.105578703704</v>
       </c>
       <c r="F269" t="b">
         <v>1</v>
@@ -9135,19 +9147,19 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>273</v>
+        <v>579</v>
       </c>
       <c r="B270" s="1">
-        <v>44498.705949074072</v>
+        <v>44190.785381944443</v>
       </c>
       <c r="C270">
         <v>1581</v>
       </c>
       <c r="D270" t="s">
-        <v>274</v>
+        <v>580</v>
       </c>
       <c r="E270" s="1">
-        <v>43300.105578703704</v>
+        <v>43299.269375000003</v>
       </c>
       <c r="F270" t="b">
         <v>1</v>
@@ -9155,7 +9167,7 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B271" s="1">
         <v>44088.271782407406</v>
@@ -9164,7 +9176,7 @@
         <v>1594</v>
       </c>
       <c r="D271" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E271" s="1">
         <v>42987.684525462966</v>
@@ -9175,7 +9187,7 @@
     </row>
     <row r="272" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B272" s="1">
         <v>44104.098692129628</v>
@@ -9184,7 +9196,7 @@
         <v>1594</v>
       </c>
       <c r="D272" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="E272" s="1">
         <v>44517.450879629629</v>
@@ -9195,7 +9207,7 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="B273" s="1">
         <v>44547.722766203704</v>
@@ -9204,7 +9216,7 @@
         <v>1602</v>
       </c>
       <c r="D273" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="E273" s="1">
         <v>42214.112002314818</v>
@@ -9215,7 +9227,7 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="B274" s="1">
         <v>44190.784513888888</v>
@@ -9224,7 +9236,7 @@
         <v>1615</v>
       </c>
       <c r="D274" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="E274" s="1">
         <v>43299.26703703704</v>
@@ -9235,7 +9247,7 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B275" s="1">
         <v>44190.785162037035</v>
@@ -9244,7 +9256,7 @@
         <v>1625</v>
       </c>
       <c r="D275" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="E275" s="1">
         <v>43299.268692129626</v>
@@ -9255,7 +9267,7 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B276" s="1">
         <v>43529.343969907408</v>
@@ -9264,7 +9276,7 @@
         <v>1625</v>
       </c>
       <c r="D276" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="E276" s="1">
         <v>43524.517812500002</v>
@@ -9275,7 +9287,7 @@
     </row>
     <row r="277" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="B277" s="1">
         <v>43721.956747685188</v>
@@ -9284,7 +9296,7 @@
         <v>1639</v>
       </c>
       <c r="D277" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="E277" s="1">
         <v>43790.166331018518</v>
@@ -9295,7 +9307,7 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B278" s="1">
         <v>44498.705497685187</v>
@@ -9304,7 +9316,7 @@
         <v>1657</v>
       </c>
       <c r="D278" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="E278" s="1">
         <v>42961.745613425926</v>
@@ -9315,7 +9327,7 @@
     </row>
     <row r="279" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="B279" s="1">
         <v>44274.638148148151</v>
@@ -9324,7 +9336,7 @@
         <v>1657</v>
       </c>
       <c r="D279" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="E279" s="1">
         <v>44274.638506944444</v>
@@ -9335,7 +9347,7 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B280" s="1">
         <v>44253.379560185182</v>
@@ -9344,7 +9356,7 @@
         <v>1678</v>
       </c>
       <c r="D280" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E280" s="1">
         <v>43285.394479166665</v>
@@ -9355,7 +9367,7 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B281" s="1">
         <v>43855.822534722225</v>
@@ -9364,7 +9376,7 @@
         <v>1685</v>
       </c>
       <c r="D281" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E281" s="1">
         <v>43305.068831018521</v>
@@ -9375,7 +9387,7 @@
     </row>
     <row r="282" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="B282" s="1">
         <v>44162.627268518518</v>
@@ -9384,7 +9396,7 @@
         <v>1700</v>
       </c>
       <c r="D282" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="E282" s="1">
         <v>44450.605439814812</v>
@@ -9395,7 +9407,7 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B283" s="1">
         <v>44413.467673611114</v>
@@ -9404,7 +9416,7 @@
         <v>1702</v>
       </c>
       <c r="D283" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E283" s="1">
         <v>43419.573159722226</v>
@@ -9415,7 +9427,7 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="B284" s="1">
         <v>44056.408900462964</v>
@@ -9424,7 +9436,7 @@
         <v>1708</v>
       </c>
       <c r="D284" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="E284" s="1">
         <v>43300.349861111114</v>
@@ -9435,7 +9447,7 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="B285" s="1">
         <v>44130.501331018517</v>
@@ -9444,7 +9456,7 @@
         <v>1717</v>
       </c>
       <c r="D285" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="E285" s="1">
         <v>43298.186354166668</v>
@@ -9455,7 +9467,7 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B286" s="1">
         <v>43529.344155092593</v>
@@ -9464,7 +9476,7 @@
         <v>1720</v>
       </c>
       <c r="D286" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E286" s="1">
         <v>43524.518217592595</v>
@@ -9475,7 +9487,7 @@
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B287" s="1">
         <v>44074.383622685185</v>
@@ -9484,7 +9496,7 @@
         <v>1745</v>
       </c>
       <c r="D287" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E287" s="1">
         <v>43419.572604166664</v>
@@ -9495,7 +9507,7 @@
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B288" s="1">
         <v>43529.344050925924</v>
@@ -9504,7 +9516,7 @@
         <v>1749</v>
       </c>
       <c r="D288" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E288" s="1">
         <v>43524.517974537041</v>
@@ -9515,7 +9527,7 @@
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B289" s="1">
         <v>44547.720810185187</v>
@@ -9524,7 +9536,7 @@
         <v>1776</v>
       </c>
       <c r="D289" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E289" s="1">
         <v>43291.156365740739</v>
@@ -9535,7 +9547,7 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="B290" s="1">
         <v>43724.30972222222</v>
@@ -9544,7 +9556,7 @@
         <v>1784</v>
       </c>
       <c r="D290" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="E290" s="1">
         <v>43285.366018518522</v>
@@ -9555,7 +9567,7 @@
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B291" s="1">
         <v>43895.38517361111</v>
@@ -9564,7 +9576,7 @@
         <v>1802</v>
       </c>
       <c r="D291" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="E291" s="1">
         <v>42988.401921296296</v>
@@ -9575,7 +9587,7 @@
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B292" s="1">
         <v>43724.649942129632</v>
@@ -9584,7 +9596,7 @@
         <v>1825</v>
       </c>
       <c r="D292" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="E292" s="1">
         <v>43522.725844907407</v>
@@ -9595,7 +9607,7 @@
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="B293" s="1">
         <v>43529.344039351854</v>
@@ -9604,7 +9616,7 @@
         <v>1825</v>
       </c>
       <c r="D293" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="E293" s="1">
         <v>43524.517916666664</v>
@@ -9615,7 +9627,7 @@
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>906</v>
+        <v>897</v>
       </c>
       <c r="B294" s="1">
         <v>44517.464039351849</v>
@@ -9624,7 +9636,7 @@
         <v>1841</v>
       </c>
       <c r="D294" t="s">
-        <v>888</v>
+        <v>879</v>
       </c>
       <c r="F294" t="b">
         <v>1</v>
@@ -9632,7 +9644,7 @@
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B295" s="1">
         <v>44369.37771990741</v>
@@ -9641,7 +9653,7 @@
         <v>1909</v>
       </c>
       <c r="D295" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E295" s="1">
         <v>43291.31658564815</v>
@@ -9652,7 +9664,7 @@
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B296" s="1">
         <v>44270.732870370368</v>
@@ -9661,7 +9673,7 @@
         <v>1937</v>
       </c>
       <c r="D296" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E296" s="1">
         <v>42988.401250000003</v>
@@ -9672,7 +9684,7 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="B297" s="1">
         <v>43541.185347222221</v>
@@ -9681,7 +9693,7 @@
         <v>1967</v>
       </c>
       <c r="D297" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="E297" s="1">
         <v>42980.824583333335</v>
@@ -9692,7 +9704,7 @@
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="B298" s="1">
         <v>44027.390798611108</v>
@@ -9701,7 +9713,7 @@
         <v>1972</v>
       </c>
       <c r="D298" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="E298" s="1">
         <v>43291.358993055554</v>
@@ -9712,7 +9724,7 @@
     </row>
     <row r="299" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B299" s="1">
         <v>44176.761053240742</v>
@@ -9721,7 +9733,7 @@
         <v>1991</v>
       </c>
       <c r="D299" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="E299" s="1">
         <v>44176.762025462966</v>
@@ -9732,7 +9744,7 @@
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B300" s="1">
         <v>43529.344108796293</v>
@@ -9741,7 +9753,7 @@
         <v>2003</v>
       </c>
       <c r="D300" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E300" s="1">
         <v>43524.517905092594</v>
@@ -9752,7 +9764,7 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B301" s="1">
         <v>43368.615949074076</v>
@@ -9761,7 +9773,7 @@
         <v>2013</v>
       </c>
       <c r="D301" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E301" s="1">
         <v>43270.324259259258</v>
@@ -9772,7 +9784,7 @@
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B302" s="1">
         <v>43721.991863425923</v>
@@ -9781,7 +9793,7 @@
         <v>2027</v>
       </c>
       <c r="D302" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E302" s="1">
         <v>43298.259351851855</v>
@@ -9792,7 +9804,7 @@
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>907</v>
+        <v>898</v>
       </c>
       <c r="B303" s="1">
         <v>44517.462245370371</v>
@@ -9801,7 +9813,7 @@
         <v>2039</v>
       </c>
       <c r="D303" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
       <c r="F303" t="b">
         <v>1</v>
@@ -9809,7 +9821,7 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="B304" s="1">
         <v>44098.36446759259</v>
@@ -9818,7 +9830,7 @@
         <v>2040</v>
       </c>
       <c r="D304" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="E304" s="1">
         <v>43271.354930555557</v>
@@ -9829,7 +9841,7 @@
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>908</v>
+        <v>899</v>
       </c>
       <c r="B305" s="1">
         <v>44151.541689814818</v>
@@ -9838,7 +9850,7 @@
         <v>2044</v>
       </c>
       <c r="D305" t="s">
-        <v>883</v>
+        <v>874</v>
       </c>
       <c r="F305" t="b">
         <v>1</v>
@@ -9846,7 +9858,7 @@
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B306" s="1">
         <v>43529.344143518516</v>
@@ -9855,7 +9867,7 @@
         <v>2048</v>
       </c>
       <c r="D306" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E306" s="1">
         <v>43524.517962962964</v>
@@ -9866,7 +9878,7 @@
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="B307" s="1">
         <v>43529.343993055554</v>
@@ -9875,7 +9887,7 @@
         <v>2079</v>
       </c>
       <c r="D307" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="E307" s="1">
         <v>43524.518078703702</v>
@@ -9886,7 +9898,7 @@
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B308" s="1">
         <v>44121.701770833337</v>
@@ -9895,7 +9907,7 @@
         <v>2080</v>
       </c>
       <c r="D308" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E308" s="1">
         <v>43524.518275462964</v>
@@ -9906,7 +9918,7 @@
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="B309" s="1">
         <v>43724.451122685183</v>
@@ -9915,7 +9927,7 @@
         <v>2106</v>
       </c>
       <c r="D309" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="E309" s="1">
         <v>42964.445648148147</v>
@@ -9926,7 +9938,7 @@
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B310" s="1">
         <v>43529.344097222223</v>
@@ -9935,7 +9947,7 @@
         <v>2112</v>
       </c>
       <c r="D310" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E310" s="1">
         <v>43524.518252314818</v>
@@ -9946,7 +9958,7 @@
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B311" s="1">
         <v>44280.663819444446</v>
@@ -9955,7 +9967,7 @@
         <v>2120</v>
       </c>
       <c r="D311" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E311" s="1">
         <v>43285.156226851854</v>
@@ -9966,7 +9978,7 @@
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="B312" s="1">
         <v>44082.498460648145</v>
@@ -9975,7 +9987,7 @@
         <v>2138</v>
       </c>
       <c r="D312" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="E312" s="1">
         <v>43978.438101851854</v>
@@ -9986,7 +9998,7 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="B313" s="1">
         <v>44091.128321759257</v>
@@ -9995,7 +10007,7 @@
         <v>2140</v>
       </c>
       <c r="D313" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="E313" s="1">
         <v>43420.352488425924</v>
@@ -10006,7 +10018,7 @@
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B314" s="1">
         <v>43529.344131944446</v>
@@ -10015,7 +10027,7 @@
         <v>2141</v>
       </c>
       <c r="D314" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E314" s="1">
         <v>43524.51798611111</v>
@@ -10026,7 +10038,7 @@
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="B315" s="1">
         <v>44425.384363425925</v>
@@ -10035,7 +10047,7 @@
         <v>2143</v>
       </c>
       <c r="D315" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="E315" s="1">
         <v>43524.518437500003</v>
@@ -10046,7 +10058,7 @@
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="B316" s="1">
         <v>44091.973252314812</v>
@@ -10055,7 +10067,7 @@
         <v>2144</v>
       </c>
       <c r="D316" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="E316" s="1">
         <v>43294.601909722223</v>
@@ -10066,7 +10078,7 @@
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="B317" s="1">
         <v>43529.3440625</v>
@@ -10075,7 +10087,7 @@
         <v>2160</v>
       </c>
       <c r="D317" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="E317" s="1">
         <v>43524.517974537041</v>
@@ -10086,7 +10098,7 @@
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B318" s="1">
         <v>43529.344085648147</v>
@@ -10095,7 +10107,7 @@
         <v>2168</v>
       </c>
       <c r="D318" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E318" s="1">
         <v>43524.51829861111</v>
@@ -10106,7 +10118,7 @@
     </row>
     <row r="319" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B319" s="1">
         <v>44274.646539351852</v>
@@ -10115,7 +10127,7 @@
         <v>2187</v>
       </c>
       <c r="D319" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E319" s="1">
         <v>44274.646782407406</v>
@@ -10126,7 +10138,7 @@
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="B320" s="1">
         <v>43529.344074074077</v>
@@ -10135,7 +10147,7 @@
         <v>2196</v>
       </c>
       <c r="D320" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="E320" s="1">
         <v>43524.518009259256</v>
@@ -10146,7 +10158,7 @@
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B321" s="1">
         <v>44270.733298611114</v>
@@ -10155,7 +10167,7 @@
         <v>2198</v>
       </c>
       <c r="D321" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E321" s="1">
         <v>42988.401585648149</v>
@@ -10166,7 +10178,7 @@
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B322" s="1">
         <v>44269.540046296293</v>
@@ -10175,7 +10187,7 @@
         <v>2216</v>
       </c>
       <c r="D322" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="E322" s="1">
         <v>43285.320254629631</v>
@@ -10186,7 +10198,7 @@
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="B323" s="1">
         <v>44088.350914351853</v>
@@ -10195,7 +10207,7 @@
         <v>2246</v>
       </c>
       <c r="D323" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="E323" s="1">
         <v>43271.342488425929</v>
@@ -10206,7 +10218,7 @@
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="B324" s="1">
         <v>43950.220439814817</v>
@@ -10215,7 +10227,7 @@
         <v>2272</v>
       </c>
       <c r="D324" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="E324" s="1">
         <v>43291.382743055554</v>
@@ -10226,7 +10238,7 @@
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="B325" s="1">
         <v>44218.665833333333</v>
@@ -10235,7 +10247,7 @@
         <v>2310</v>
       </c>
       <c r="D325" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="E325" s="1">
         <v>43270.353391203702</v>
@@ -10246,7 +10258,7 @@
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B326" s="1">
         <v>43791.883379629631</v>
@@ -10255,7 +10267,7 @@
         <v>2329</v>
       </c>
       <c r="D326" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E326" s="1">
         <v>43300.296342592592</v>
@@ -10266,7 +10278,7 @@
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="B327" s="1">
         <v>43567.374386574076</v>
@@ -10275,7 +10287,7 @@
         <v>2334</v>
       </c>
       <c r="D327" t="s">
-        <v>870</v>
+        <v>862</v>
       </c>
       <c r="F327" t="b">
         <v>1</v>
@@ -10283,7 +10295,7 @@
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B328" s="1">
         <v>44517.672106481485</v>
@@ -10292,7 +10304,7 @@
         <v>2338</v>
       </c>
       <c r="D328" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="E328" s="1">
         <v>43291.242650462962</v>
@@ -10303,7 +10315,7 @@
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="B329" s="1">
         <v>44091.127870370372</v>
@@ -10312,7 +10324,7 @@
         <v>2343</v>
       </c>
       <c r="D329" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="E329" s="1">
         <v>43418.744768518518</v>
@@ -10323,7 +10335,7 @@
     </row>
     <row r="330" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="B330" s="1">
         <v>44165.756192129629</v>
@@ -10332,7 +10344,7 @@
         <v>2362</v>
       </c>
       <c r="D330" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="E330" s="1">
         <v>44165.757025462961</v>
@@ -10343,7 +10355,7 @@
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="B331" s="1">
         <v>44240.120983796296</v>
@@ -10352,7 +10364,7 @@
         <v>2374</v>
       </c>
       <c r="D331" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="E331" s="1">
         <v>43299.112175925926</v>
@@ -10363,7 +10375,7 @@
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B332" s="1">
         <v>44346.4765162037</v>
@@ -10372,7 +10384,7 @@
         <v>2388</v>
       </c>
       <c r="D332" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="E332" s="1">
         <v>43165.545092592591</v>
@@ -10383,7 +10395,7 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="B333" s="1">
         <v>44290.003530092596</v>
@@ -10392,7 +10404,7 @@
         <v>2410</v>
       </c>
       <c r="D333" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="E333" s="1">
         <v>43279.315289351849</v>
@@ -10403,7 +10415,7 @@
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B334" s="1">
         <v>43970.653993055559</v>
@@ -10412,7 +10424,7 @@
         <v>2421</v>
       </c>
       <c r="D334" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E334" s="1">
         <v>43522.726261574076</v>
@@ -10423,7 +10435,7 @@
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="B335" s="1">
         <v>43529.565844907411</v>
@@ -10432,7 +10444,7 @@
         <v>2442</v>
       </c>
       <c r="D335" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="E335" s="1">
         <v>43290.158090277779</v>
@@ -10443,7 +10455,7 @@
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="B336" s="1">
         <v>44128.207430555558</v>
@@ -10452,7 +10464,7 @@
         <v>2450</v>
       </c>
       <c r="D336" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="F336" t="b">
         <v>1</v>
@@ -10460,19 +10472,19 @@
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>817</v>
+        <v>607</v>
       </c>
       <c r="B337" s="1">
-        <v>44270.778877314813</v>
+        <v>44290.100821759261</v>
       </c>
       <c r="C337">
         <v>2466</v>
       </c>
       <c r="D337" t="s">
-        <v>818</v>
+        <v>608</v>
       </c>
       <c r="E337" s="1">
-        <v>43094.566064814811</v>
+        <v>43473.31077546296</v>
       </c>
       <c r="F337" t="b">
         <v>1</v>
@@ -10480,19 +10492,19 @@
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>612</v>
+        <v>809</v>
       </c>
       <c r="B338" s="1">
-        <v>44290.100821759261</v>
+        <v>44270.778877314813</v>
       </c>
       <c r="C338">
         <v>2466</v>
       </c>
       <c r="D338" t="s">
-        <v>613</v>
+        <v>810</v>
       </c>
       <c r="E338" s="1">
-        <v>43473.31077546296</v>
+        <v>43094.566064814811</v>
       </c>
       <c r="F338" t="b">
         <v>1</v>
@@ -10500,7 +10512,7 @@
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B339" s="1">
         <v>44421.793090277781</v>
@@ -10509,7 +10521,7 @@
         <v>2490</v>
       </c>
       <c r="D339" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E339" s="1">
         <v>44421.793020833335</v>
@@ -10520,7 +10532,7 @@
     </row>
     <row r="340" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="B340" s="1">
         <v>43567.613055555557</v>
@@ -10529,7 +10541,7 @@
         <v>2533</v>
       </c>
       <c r="D340" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="E340" s="1">
         <v>43823.192141203705</v>
@@ -10540,7 +10552,7 @@
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B341" s="1">
         <v>44322.990729166668</v>
@@ -10549,7 +10561,7 @@
         <v>2539</v>
       </c>
       <c r="D341" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E341" s="1">
         <v>43308.190439814818</v>
@@ -10560,7 +10572,7 @@
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B342" s="1">
         <v>44270.732106481482</v>
@@ -10569,7 +10581,7 @@
         <v>2610</v>
       </c>
       <c r="D342" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E342" s="1">
         <v>43424.583148148151</v>
@@ -10580,7 +10592,7 @@
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="B343" s="1">
         <v>44339.187557870369</v>
@@ -10589,7 +10601,7 @@
         <v>2634</v>
       </c>
       <c r="D343" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="E343" s="1">
         <v>43298.422199074077</v>
@@ -10600,7 +10612,7 @@
     </row>
     <row r="344" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="B344" s="1">
         <v>43776.521585648145</v>
@@ -10609,7 +10621,7 @@
         <v>2653</v>
       </c>
       <c r="D344" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="E344" s="1">
         <v>43790.152627314812</v>
@@ -10620,7 +10632,7 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B345" s="1">
         <v>44386.567916666667</v>
@@ -10629,7 +10641,7 @@
         <v>2665</v>
       </c>
       <c r="D345" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="E345" s="1">
         <v>43270.29550925926</v>
@@ -10640,7 +10652,7 @@
     </row>
     <row r="346" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B346" s="1">
         <v>44295.479560185187</v>
@@ -10649,7 +10661,7 @@
         <v>2666</v>
       </c>
       <c r="D346" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="E346" s="1">
         <v>44295.479571759257</v>
@@ -10660,7 +10672,7 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B347" s="1">
         <v>44243.455231481479</v>
@@ -10669,7 +10681,7 @@
         <v>2669</v>
       </c>
       <c r="D347" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E347" s="1">
         <v>42988.399861111109</v>
@@ -10680,7 +10692,7 @@
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B348" s="1">
         <v>43529.344155092593</v>
@@ -10689,7 +10701,7 @@
         <v>2705</v>
       </c>
       <c r="D348" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E348" s="1">
         <v>43524.51829861111</v>
@@ -10700,7 +10712,7 @@
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="B349" s="1">
         <v>44280.663819444446</v>
@@ -10709,7 +10721,7 @@
         <v>2750</v>
       </c>
       <c r="D349" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="E349" s="1">
         <v>43298.878935185188</v>
@@ -10720,7 +10732,7 @@
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="B350" s="1">
         <v>44306.268657407411</v>
@@ -10729,7 +10741,7 @@
         <v>2798</v>
       </c>
       <c r="D350" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="E350" s="1">
         <v>43299.108449074076</v>
@@ -10740,7 +10752,7 @@
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>884</v>
+        <v>875</v>
       </c>
       <c r="B351" s="1">
         <v>44438.189629629633</v>
@@ -10749,7 +10761,7 @@
         <v>2830</v>
       </c>
       <c r="D351" t="s">
-        <v>885</v>
+        <v>876</v>
       </c>
       <c r="F351" t="b">
         <v>1</v>
@@ -10757,7 +10769,7 @@
     </row>
     <row r="352" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B352" s="1">
         <v>44508.431041666663</v>
@@ -10766,7 +10778,7 @@
         <v>2895</v>
       </c>
       <c r="D352" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E352" s="1">
         <v>44517.472037037034</v>
@@ -10777,7 +10789,7 @@
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="B353" s="1">
         <v>43511.899062500001</v>
@@ -10786,7 +10798,7 @@
         <v>2896</v>
       </c>
       <c r="D353" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="E353" s="1">
         <v>42987.689004629632</v>
@@ -10797,7 +10809,7 @@
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B354" s="1">
         <v>44295.469988425924</v>
@@ -10806,7 +10818,7 @@
         <v>2905</v>
       </c>
       <c r="D354" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E354" s="1">
         <v>43524.51803240741</v>
@@ -10817,7 +10829,7 @@
     </row>
     <row r="355" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B355" s="1">
         <v>44266.720960648148</v>
@@ -10826,7 +10838,7 @@
         <v>2911</v>
       </c>
       <c r="D355" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="E355" s="1">
         <v>44295.475972222222</v>
@@ -10836,8 +10848,8 @@
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A356" t="s">
-        <v>876</v>
+      <c r="A356" s="2" t="s">
+        <v>916</v>
       </c>
       <c r="B356" s="1">
         <v>44580.480590277781</v>
@@ -10846,7 +10858,7 @@
         <v>2921</v>
       </c>
       <c r="D356" t="s">
-        <v>877</v>
+        <v>868</v>
       </c>
       <c r="F356" t="b">
         <v>1</v>
@@ -10854,7 +10866,7 @@
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="B357" s="1">
         <v>44091.76258101852</v>
@@ -10863,7 +10875,7 @@
         <v>2941</v>
       </c>
       <c r="D357" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="E357" s="1">
         <v>43299.134189814817</v>
@@ -10874,7 +10886,7 @@
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="B358" s="1">
         <v>43581.392592592594</v>
@@ -10883,7 +10895,7 @@
         <v>2962</v>
       </c>
       <c r="D358" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="E358" s="1">
         <v>42982.821643518517</v>
@@ -10894,7 +10906,7 @@
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="B359" s="1">
         <v>44123.718530092592</v>
@@ -10903,7 +10915,7 @@
         <v>2995</v>
       </c>
       <c r="D359" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="E359" s="1">
         <v>43823.206331018519</v>
@@ -10914,7 +10926,7 @@
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="B360" s="1">
         <v>44091.762118055558</v>
@@ -10923,7 +10935,7 @@
         <v>3016</v>
       </c>
       <c r="D360" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="E360" s="1">
         <v>43522.726747685185</v>
@@ -10934,7 +10946,7 @@
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="B361" s="1">
         <v>44414.726655092592</v>
@@ -10943,7 +10955,7 @@
         <v>3018</v>
       </c>
       <c r="D361" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="E361" s="1">
         <v>43405.728414351855</v>
@@ -10974,7 +10986,7 @@
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B363" s="1">
         <v>44252.433981481481</v>
@@ -10983,7 +10995,7 @@
         <v>3054</v>
       </c>
       <c r="D363" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E363" s="1">
         <v>43307.66574074074</v>
@@ -10994,7 +11006,7 @@
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="B364" s="1">
         <v>44086.977106481485</v>
@@ -11003,7 +11015,7 @@
         <v>3117</v>
       </c>
       <c r="D364" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="E364" s="1">
         <v>43291.939918981479</v>
@@ -11014,7 +11026,7 @@
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>881</v>
+        <v>872</v>
       </c>
       <c r="B365" s="1">
         <v>44515.026875000003</v>
@@ -11023,7 +11035,7 @@
         <v>3146</v>
       </c>
       <c r="D365" t="s">
-        <v>882</v>
+        <v>873</v>
       </c>
       <c r="F365" t="b">
         <v>1</v>
@@ -11031,7 +11043,7 @@
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>886</v>
+        <v>877</v>
       </c>
       <c r="B366" s="1">
         <v>44534.953657407408</v>
@@ -11040,7 +11052,7 @@
         <v>3151</v>
       </c>
       <c r="D366" t="s">
-        <v>887</v>
+        <v>878</v>
       </c>
       <c r="F366" t="b">
         <v>1</v>
@@ -11048,7 +11060,7 @@
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B367" s="1">
         <v>44369.361261574071</v>
@@ -11057,7 +11069,7 @@
         <v>3157</v>
       </c>
       <c r="D367" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="E367" s="1">
         <v>43294.741064814814</v>
@@ -11068,7 +11080,7 @@
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B368" s="1">
         <v>44125.43855324074</v>
@@ -11077,7 +11089,7 @@
         <v>3184</v>
       </c>
       <c r="D368" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E368" s="1">
         <v>43279.2499537037</v>
@@ -11088,7 +11100,7 @@
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="B369" s="1">
         <v>44202.436215277776</v>
@@ -11097,7 +11109,7 @@
         <v>3215</v>
       </c>
       <c r="D369" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="E369" s="1">
         <v>43286.384016203701</v>
@@ -11108,7 +11120,7 @@
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B370" s="1">
         <v>44341.257268518515</v>
@@ -11117,7 +11129,7 @@
         <v>3268</v>
       </c>
       <c r="D370" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E370" s="1">
         <v>43291.426249999997</v>
@@ -11128,7 +11140,7 @@
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B371" s="1">
         <v>44067.41611111111</v>
@@ -11137,7 +11149,7 @@
         <v>3287</v>
       </c>
       <c r="D371" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E371" s="1">
         <v>43731.816493055558</v>
@@ -11148,7 +11160,7 @@
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B372" s="1">
         <v>43950.169768518521</v>
@@ -11157,7 +11169,7 @@
         <v>3290</v>
       </c>
       <c r="D372" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E372" s="1">
         <v>42961.803483796299</v>
@@ -11168,7 +11180,7 @@
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="B373" s="1">
         <v>43587.337060185186</v>
@@ -11177,7 +11189,7 @@
         <v>3363</v>
       </c>
       <c r="D373" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="F373" t="b">
         <v>1</v>
@@ -11185,7 +11197,7 @@
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B374" s="1">
         <v>44266.740289351852</v>
@@ -11194,7 +11206,7 @@
         <v>3373</v>
       </c>
       <c r="D374" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E374" s="1">
         <v>43420.892905092594</v>
@@ -11205,7 +11217,7 @@
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B375" s="1">
         <v>44575.786747685182</v>
@@ -11214,7 +11226,7 @@
         <v>3399</v>
       </c>
       <c r="D375" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E375" s="1">
         <v>44274.646527777775</v>
@@ -11225,7 +11237,7 @@
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="B376" s="1">
         <v>44573.184965277775</v>
@@ -11234,7 +11246,7 @@
         <v>3412</v>
       </c>
       <c r="D376" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="E376" s="1">
         <v>43522.726967592593</v>
@@ -11245,7 +11257,7 @@
     </row>
     <row r="377" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="B377" s="1">
         <v>44274.638657407406</v>
@@ -11254,7 +11266,7 @@
         <v>3457</v>
       </c>
       <c r="D377" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="E377" s="1">
         <v>44274.638865740744</v>
@@ -11265,7 +11277,7 @@
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="B378" s="1">
         <v>44191.099120370367</v>
@@ -11274,7 +11286,7 @@
         <v>3505</v>
       </c>
       <c r="D378" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="E378" s="1">
         <v>44176.783668981479</v>
@@ -11285,7 +11297,7 @@
     </row>
     <row r="379" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="B379" s="1">
         <v>44160.616435185184</v>
@@ -11294,7 +11306,7 @@
         <v>3513</v>
       </c>
       <c r="D379" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="E379" s="1">
         <v>44160.617256944446</v>
@@ -11305,7 +11317,7 @@
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
       <c r="B380" s="1">
         <v>43772.548935185187</v>
@@ -11314,7 +11326,7 @@
         <v>3518</v>
       </c>
       <c r="D380" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
       <c r="E380" s="1">
         <v>43524.517951388887</v>
@@ -11325,7 +11337,7 @@
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B381" s="1">
         <v>44396.410509259258</v>
@@ -11334,7 +11346,7 @@
         <v>3623</v>
       </c>
       <c r="D381" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E381" s="1">
         <v>43270.277430555558</v>
@@ -11345,7 +11357,7 @@
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B382" s="1">
         <v>44158.476851851854</v>
@@ -11354,7 +11366,7 @@
         <v>3731</v>
       </c>
       <c r="D382" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="E382" s="1">
         <v>42987.688993055555</v>
@@ -11365,7 +11377,7 @@
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B383" s="1">
         <v>44125.441828703704</v>
@@ -11374,7 +11386,7 @@
         <v>3859</v>
       </c>
       <c r="D383" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="E383" s="1">
         <v>43279.220520833333</v>
@@ -11385,7 +11397,7 @@
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>32</v>
+        <v>917</v>
       </c>
       <c r="B384" s="1">
         <v>44578.643043981479</v>
@@ -11394,7 +11406,7 @@
         <v>3957</v>
       </c>
       <c r="D384" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E384" s="1">
         <v>43538.519965277781</v>
@@ -11405,7 +11417,7 @@
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="B385" s="1">
         <v>43724.458749999998</v>
@@ -11414,7 +11426,7 @@
         <v>4000</v>
       </c>
       <c r="D385" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="E385" s="1">
         <v>43299.152430555558</v>
@@ -11425,7 +11437,7 @@
     </row>
     <row r="386" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="B386" s="1">
         <v>44274.638831018521</v>
@@ -11434,7 +11446,7 @@
         <v>4146</v>
       </c>
       <c r="D386" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="E386" s="1">
         <v>44274.639050925929</v>
@@ -11445,7 +11457,7 @@
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B387" s="1">
         <v>44256.072627314818</v>
@@ -11454,7 +11466,7 @@
         <v>4171</v>
       </c>
       <c r="D387" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E387" s="1">
         <v>43278.421747685185</v>
@@ -11465,7 +11477,7 @@
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B388" s="1">
         <v>44092.366724537038</v>
@@ -11474,7 +11486,7 @@
         <v>4213</v>
       </c>
       <c r="D388" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="E388" s="1">
         <v>43524.51798611111</v>
@@ -11485,7 +11497,7 @@
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="B389" s="1">
         <v>44509.146261574075</v>
@@ -11494,7 +11506,7 @@
         <v>4256</v>
       </c>
       <c r="D389" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="E389" s="1">
         <v>43421.189143518517</v>
@@ -11505,7 +11517,7 @@
     </row>
     <row r="390" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="B390" s="1">
         <v>44341.440497685187</v>
@@ -11514,7 +11526,7 @@
         <v>4260</v>
       </c>
       <c r="D390" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="E390" s="1">
         <v>44450.62972222222</v>
@@ -11525,7 +11537,7 @@
     </row>
     <row r="391" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="B391" s="1">
         <v>44274.638449074075</v>
@@ -11534,7 +11546,7 @@
         <v>4374</v>
       </c>
       <c r="D391" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="E391" s="1">
         <v>44274.638703703706</v>
@@ -11545,7 +11557,7 @@
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="B392" s="1">
         <v>44380.903298611112</v>
@@ -11554,7 +11566,7 @@
         <v>4395</v>
       </c>
       <c r="D392" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
       <c r="F392" t="b">
         <v>1</v>
@@ -11562,7 +11574,7 @@
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="B393" s="1">
         <v>42762.717106481483</v>
@@ -11571,7 +11583,7 @@
         <v>4483</v>
       </c>
       <c r="D393" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="F393" t="b">
         <v>1</v>
@@ -11579,7 +11591,7 @@
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B394" s="1">
         <v>43666.486377314817</v>
@@ -11588,7 +11600,7 @@
         <v>4492</v>
       </c>
       <c r="D394" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="E394" s="1">
         <v>43332.493148148147</v>
@@ -11599,7 +11611,7 @@
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="B395" s="1">
         <v>44308.129027777781</v>
@@ -11608,7 +11620,7 @@
         <v>4569</v>
       </c>
       <c r="D395" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="E395" s="1">
         <v>43298.164479166669</v>
@@ -11619,7 +11631,7 @@
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
       <c r="B396" s="1">
         <v>44529.425451388888</v>
@@ -11628,7 +11640,7 @@
         <v>4577</v>
       </c>
       <c r="D396" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="F396" t="b">
         <v>1</v>
@@ -11636,7 +11648,7 @@
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
       <c r="B397" s="1">
         <v>43633.838888888888</v>
@@ -11645,7 +11657,7 @@
         <v>4635</v>
       </c>
       <c r="D397" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
       <c r="F397" t="b">
         <v>1</v>
@@ -11653,7 +11665,7 @@
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>909</v>
+        <v>900</v>
       </c>
       <c r="B398" s="1">
         <v>43552.65351851852</v>
@@ -11662,7 +11674,7 @@
         <v>4751</v>
       </c>
       <c r="D398" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="E398" s="1">
         <v>41938.498217592591</v>
@@ -11673,7 +11685,7 @@
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B399" s="1">
         <v>44547.720856481479</v>
@@ -11682,7 +11694,7 @@
         <v>4782</v>
       </c>
       <c r="D399" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E399" s="1">
         <v>43291.329259259262</v>
@@ -11693,7 +11705,7 @@
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
       <c r="B400" s="1">
         <v>44055.395127314812</v>
@@ -11702,7 +11714,7 @@
         <v>4790</v>
       </c>
       <c r="D400" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="F400" t="b">
         <v>1</v>
@@ -11710,7 +11722,7 @@
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="B401" s="1">
         <v>44574.722025462965</v>
@@ -11719,7 +11731,7 @@
         <v>4876</v>
       </c>
       <c r="D401" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="E401" s="1">
         <v>43285.388055555559</v>
@@ -11730,7 +11742,7 @@
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>867</v>
+        <v>859</v>
       </c>
       <c r="B402" s="1">
         <v>44365.591909722221</v>
@@ -11739,7 +11751,7 @@
         <v>4987</v>
       </c>
       <c r="D402" t="s">
-        <v>868</v>
+        <v>860</v>
       </c>
       <c r="F402" t="b">
         <v>1</v>
@@ -11747,7 +11759,7 @@
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B403" s="1">
         <v>44057.970277777778</v>
@@ -11756,7 +11768,7 @@
         <v>5005</v>
       </c>
       <c r="D403" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E403" s="1">
         <v>43279.221412037034</v>
@@ -11767,7 +11779,7 @@
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B404" s="1">
         <v>44550.891747685186</v>
@@ -11776,7 +11788,7 @@
         <v>5262</v>
       </c>
       <c r="D404" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E404" s="1">
         <v>44295.473078703704</v>
@@ -11787,7 +11799,7 @@
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="B405" s="1">
         <v>44323.392916666664</v>
@@ -11796,7 +11808,7 @@
         <v>5269</v>
       </c>
       <c r="D405" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="F405" t="b">
         <v>1</v>
@@ -11804,7 +11816,7 @@
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B406" s="1">
         <v>44091.222581018519</v>
@@ -11813,7 +11825,7 @@
         <v>5314</v>
       </c>
       <c r="D406" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E406" s="1">
         <v>43292.47111111111</v>
@@ -11824,7 +11836,7 @@
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B407" s="1">
         <v>44508.879247685189</v>
@@ -11833,7 +11845,7 @@
         <v>5317</v>
       </c>
       <c r="D407" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="E407" s="1">
         <v>43534.142071759263</v>
@@ -11844,7 +11856,7 @@
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B408" s="1">
         <v>44158.470914351848</v>
@@ -11853,7 +11865,7 @@
         <v>5421</v>
       </c>
       <c r="D408" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E408" s="1">
         <v>43802.497847222221</v>
@@ -11864,7 +11876,7 @@
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="B409" s="1">
         <v>43963.345138888886</v>
@@ -11873,7 +11885,7 @@
         <v>5674</v>
       </c>
       <c r="D409" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="E409" s="1">
         <v>43293.457789351851</v>
@@ -11904,7 +11916,7 @@
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B411" s="1">
         <v>44547.720833333333</v>
@@ -11913,7 +11925,7 @@
         <v>5805</v>
       </c>
       <c r="D411" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E411" s="1">
         <v>43291.351886574077</v>
@@ -11924,7 +11936,7 @@
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="B412" s="1">
         <v>44512.682615740741</v>
@@ -11933,7 +11945,7 @@
         <v>5906</v>
       </c>
       <c r="D412" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="E412" s="1">
         <v>44274.62903935185</v>
@@ -11944,7 +11956,7 @@
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="B413" s="1">
         <v>44060.448530092595</v>
@@ -11953,7 +11965,7 @@
         <v>6016</v>
       </c>
       <c r="D413" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="E413" s="1">
         <v>42158.565567129626</v>
@@ -11964,7 +11976,7 @@
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="B414" s="1">
         <v>44462.741261574076</v>
@@ -11973,7 +11985,7 @@
         <v>6075</v>
       </c>
       <c r="D414" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="E414" s="1">
         <v>42982.828414351854</v>
@@ -11984,7 +11996,7 @@
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="B415" s="1">
         <v>44540.76122685185</v>
@@ -11993,7 +12005,7 @@
         <v>6148</v>
       </c>
       <c r="D415" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="E415" s="1">
         <v>43270.41133101852</v>
@@ -12004,7 +12016,7 @@
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="B416" s="1">
         <v>44498.70579861111</v>
@@ -12013,7 +12025,7 @@
         <v>6178</v>
       </c>
       <c r="D416" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="E416" s="1">
         <v>43279.259108796294</v>
@@ -12024,7 +12036,7 @@
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="B417" s="1">
         <v>44131.555486111109</v>
@@ -12033,7 +12045,7 @@
         <v>6281</v>
       </c>
       <c r="D417" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="E417" s="1">
         <v>43307.708136574074</v>
@@ -12044,7 +12056,7 @@
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="B418" s="1">
         <v>44504.801898148151</v>
@@ -12053,7 +12065,7 @@
         <v>6350</v>
       </c>
       <c r="D418" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="E418" s="1">
         <v>44414.729386574072</v>
@@ -12064,7 +12076,7 @@
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
       <c r="B419" s="1">
         <v>43950.172326388885</v>
@@ -12073,7 +12085,7 @@
         <v>6544</v>
       </c>
       <c r="D419" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="F419" t="b">
         <v>1</v>
@@ -12101,7 +12113,7 @@
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B421" s="1">
         <v>44375.617395833331</v>
@@ -12110,7 +12122,7 @@
         <v>6631</v>
       </c>
       <c r="D421" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="E421" s="1">
         <v>44274.646284722221</v>
@@ -12121,7 +12133,7 @@
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>878</v>
+        <v>869</v>
       </c>
       <c r="B422" s="1">
         <v>44167.477118055554</v>
@@ -12130,7 +12142,7 @@
         <v>6677</v>
       </c>
       <c r="D422" t="s">
-        <v>879</v>
+        <v>870</v>
       </c>
       <c r="F422" t="b">
         <v>1</v>
@@ -12138,7 +12150,7 @@
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="B423" s="1">
         <v>44524.464490740742</v>
@@ -12147,7 +12159,7 @@
         <v>6763</v>
       </c>
       <c r="D423" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="E423" s="1">
         <v>43337.74422453704</v>
@@ -12158,7 +12170,7 @@
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B424" s="1">
         <v>44295.384733796294</v>
@@ -12167,7 +12179,7 @@
         <v>7213</v>
       </c>
       <c r="D424" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E424" s="1">
         <v>44274.646944444445</v>
@@ -12178,7 +12190,7 @@
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B425" s="1">
         <v>44270.737719907411</v>
@@ -12187,7 +12199,7 @@
         <v>7319</v>
       </c>
       <c r="D425" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E425" s="1">
         <v>43310.318229166667</v>
@@ -12198,7 +12210,7 @@
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B426" s="1">
         <v>44542.848541666666</v>
@@ -12207,7 +12219,7 @@
         <v>7382</v>
       </c>
       <c r="D426" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E426" s="1">
         <v>43421.500486111108</v>
@@ -12218,7 +12230,7 @@
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B427" s="1">
         <v>44160.601099537038</v>
@@ -12227,7 +12239,7 @@
         <v>7956</v>
       </c>
       <c r="D427" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E427" s="1">
         <v>42769.830775462964</v>
@@ -12238,7 +12250,7 @@
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="B428" s="1">
         <v>44543.816122685188</v>
@@ -12247,7 +12259,7 @@
         <v>8147</v>
       </c>
       <c r="D428" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="E428" s="1">
         <v>44161.728229166663</v>
@@ -12258,7 +12270,7 @@
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>894</v>
+        <v>885</v>
       </c>
       <c r="B429" s="1">
         <v>44517.623206018521</v>
@@ -12267,7 +12279,7 @@
         <v>8149</v>
       </c>
       <c r="D429" t="s">
-        <v>895</v>
+        <v>886</v>
       </c>
       <c r="F429" t="b">
         <v>1</v>
@@ -12275,7 +12287,7 @@
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="B430" s="1">
         <v>44326.423495370371</v>
@@ -12284,7 +12296,7 @@
         <v>8602</v>
       </c>
       <c r="D430" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
       <c r="F430" t="b">
         <v>1</v>
@@ -12292,7 +12304,7 @@
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
       <c r="B431" s="1">
         <v>44055.405393518522</v>
@@ -12301,7 +12313,7 @@
         <v>8878</v>
       </c>
       <c r="D431" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="F431" t="b">
         <v>1</v>
@@ -12309,7 +12321,7 @@
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B432" s="1">
         <v>44475.423958333333</v>
@@ -12318,7 +12330,7 @@
         <v>9010</v>
       </c>
       <c r="D432" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E432" s="1">
         <v>43430.546550925923</v>
@@ -12329,7 +12341,7 @@
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="B433" s="1">
         <v>44578.61346064815</v>
@@ -12338,7 +12350,7 @@
         <v>9014</v>
       </c>
       <c r="D433" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="E433" s="1">
         <v>43582.738125000003</v>
@@ -12349,7 +12361,7 @@
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="B434" s="1">
         <v>44413.361840277779</v>
@@ -12358,7 +12370,7 @@
         <v>9131</v>
       </c>
       <c r="D434" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="E434" s="1">
         <v>43291.351666666669</v>
@@ -12369,7 +12381,7 @@
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
       <c r="B435" s="1">
         <v>43687.966770833336</v>
@@ -12378,7 +12390,7 @@
         <v>9652</v>
       </c>
       <c r="D435" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
       <c r="F435" t="b">
         <v>1</v>
@@ -12386,7 +12398,7 @@
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="B436" s="1">
         <v>44058.941006944442</v>
@@ -12395,7 +12407,7 @@
         <v>9988</v>
       </c>
       <c r="D436" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="E436" s="1">
         <v>43534.820833333331</v>
@@ -12406,7 +12418,7 @@
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>889</v>
+        <v>880</v>
       </c>
       <c r="B437" s="1">
         <v>44277.523923611108</v>
@@ -12415,7 +12427,7 @@
         <v>10398</v>
       </c>
       <c r="D437" t="s">
-        <v>890</v>
+        <v>881</v>
       </c>
       <c r="F437" t="b">
         <v>1</v>
@@ -12423,7 +12435,7 @@
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B438" s="1">
         <v>44100.985358796293</v>
@@ -12432,7 +12444,7 @@
         <v>10671</v>
       </c>
       <c r="D438" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E438" s="1">
         <v>43286.378460648149</v>
@@ -12443,7 +12455,7 @@
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B439" s="1">
         <v>44060.443796296298</v>
@@ -12452,7 +12464,7 @@
         <v>10713</v>
       </c>
       <c r="D439" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E439" s="1">
         <v>43310.319062499999</v>
@@ -12463,7 +12475,7 @@
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
       <c r="B440" s="1">
         <v>44524.500810185185</v>
@@ -12472,7 +12484,7 @@
         <v>11498</v>
       </c>
       <c r="D440" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="F440" t="b">
         <v>1</v>
@@ -12480,7 +12492,7 @@
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B441" s="1">
         <v>44572.920358796298</v>
@@ -12489,7 +12501,7 @@
         <v>11523</v>
       </c>
       <c r="D441" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E441" s="1">
         <v>43291.913726851853</v>
@@ -12500,7 +12512,7 @@
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="B442" s="1">
         <v>44091.052615740744</v>
@@ -12509,7 +12521,7 @@
         <v>11744</v>
       </c>
       <c r="D442" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="F442" t="b">
         <v>1</v>
@@ -12517,7 +12529,7 @@
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B443" s="1">
         <v>44225.650763888887</v>
@@ -12526,7 +12538,7 @@
         <v>12388</v>
       </c>
       <c r="D443" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="E443" s="1">
         <v>44125.479444444441</v>
@@ -12537,7 +12549,7 @@
     </row>
     <row r="444" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="B444" s="1">
         <v>44329.754618055558</v>
@@ -12546,7 +12558,7 @@
         <v>12688</v>
       </c>
       <c r="D444" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="E444" s="1">
         <v>44450.286631944444</v>
@@ -12557,7 +12569,7 @@
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B445" s="1">
         <v>44369.362592592595</v>
@@ -12566,7 +12578,7 @@
         <v>13019</v>
       </c>
       <c r="D445" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E445" s="1">
         <v>44066.973229166666</v>
@@ -12577,7 +12589,7 @@
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B446" s="1">
         <v>44512.684259259258</v>
@@ -12586,7 +12598,7 @@
         <v>13898</v>
       </c>
       <c r="D446" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="E446" s="1">
         <v>43294.73778935185</v>
@@ -12597,7 +12609,7 @@
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="B447" s="1">
         <v>44421.770266203705</v>
@@ -12606,7 +12618,7 @@
         <v>16023</v>
       </c>
       <c r="D447" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="E447" s="1">
         <v>43659.623819444445</v>
@@ -12617,7 +12629,7 @@
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B448" s="1">
         <v>44291.39503472222</v>
@@ -12626,7 +12638,7 @@
         <v>17932</v>
       </c>
       <c r="D448" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E448" s="1">
         <v>43291.299953703703</v>
@@ -12637,7 +12649,7 @@
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B449" s="1">
         <v>44319.500520833331</v>
@@ -12646,7 +12658,7 @@
         <v>18046</v>
       </c>
       <c r="D449" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="E449" s="1">
         <v>43957.421678240738</v>
@@ -12657,7 +12669,7 @@
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="B450" s="1">
         <v>44449.447824074072</v>
@@ -12666,7 +12678,7 @@
         <v>18145</v>
       </c>
       <c r="D450" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="F450" t="b">
         <v>1</v>
@@ -12674,7 +12686,7 @@
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B451" s="1">
         <v>44547.72111111111</v>
@@ -12683,7 +12695,7 @@
         <v>18531</v>
       </c>
       <c r="D451" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E451" s="1">
         <v>43294.508923611109</v>
@@ -12694,7 +12706,7 @@
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B452" s="1">
         <v>44252.438333333332</v>
@@ -12703,7 +12715,7 @@
         <v>18805</v>
       </c>
       <c r="D452" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="E452" s="1">
         <v>43290.75472222222</v>
@@ -12714,7 +12726,7 @@
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="B453" s="1">
         <v>44540.531817129631</v>
@@ -12723,7 +12735,7 @@
         <v>19489</v>
       </c>
       <c r="D453" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="F453" t="b">
         <v>1</v>
@@ -12731,7 +12743,7 @@
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B454" s="1">
         <v>44567.057222222225</v>
@@ -12740,7 +12752,7 @@
         <v>22890</v>
       </c>
       <c r="D454" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E454" s="1">
         <v>44196.314386574071</v>
@@ -12751,7 +12763,7 @@
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="B455" s="1">
         <v>44250.643946759257</v>
@@ -12760,7 +12772,7 @@
         <v>25128</v>
       </c>
       <c r="D455" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="E455" s="1">
         <v>43298.366875</v>
@@ -12771,7 +12783,7 @@
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B456" s="1">
         <v>44556.859976851854</v>
@@ -12780,7 +12792,7 @@
         <v>34017</v>
       </c>
       <c r="D456" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E456" s="1">
         <v>43587.724768518521</v>
@@ -12791,7 +12803,7 @@
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="B457" s="1">
         <v>44365.664050925923</v>
@@ -12800,7 +12812,7 @@
         <v>85371</v>
       </c>
       <c r="D457" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
       <c r="F457" t="b">
         <v>1</v>
@@ -12813,7 +12825,7 @@
         <filter val="TRUE"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F457">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A120:F457">
       <sortCondition ref="C1:C457"/>
     </sortState>
   </autoFilter>

--- a/data/FactorioPageList.xlsx
+++ b/data/FactorioPageList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\FactorioBot\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67CBF54-CBA4-4697-AAAF-2D130B42E997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69054C7F-0BB9-4E9E-8AB3-EACEEE407DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28845" yWindow="105" windowWidth="21825" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3778,8 +3778,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F457"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A130" sqref="A130"/>
+    <sheetView tabSelected="1" topLeftCell="A401" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A411" sqref="A411"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9526,7 +9526,7 @@
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A289" t="s">
+      <c r="A289" s="3" t="s">
         <v>166</v>
       </c>
       <c r="B289" s="1">

--- a/data/FactorioPageList.xlsx
+++ b/data/FactorioPageList.xlsx
@@ -8,22 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\FactorioBot\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69054C7F-0BB9-4E9E-8AB3-EACEEE407DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40803392-AE85-4B19-9DA3-CB95A18E2FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28845" yWindow="105" windowWidth="21825" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60" yWindow="465" windowWidth="21825" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FactorioPageList" sheetId="1" r:id="rId1"/>
+    <sheet name="untrans" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FactorioPageList!$A$1:$F$457</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">untrans!$A$1:$D$66</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="918">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="1064">
   <si>
     <t>en_name</t>
   </si>
@@ -2806,6 +2808,522 @@
   </si>
   <si>
     <t>Application directory</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Alien artifact </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alien science pack </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alien technology (research) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application directory </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armor crafting (research) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balancer mechanics </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personal battery MK2 (research) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personal battery (research) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blueprint library </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chemical science pack (research) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defender (research) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curved rail </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Destroyer (research) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distractor (research) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy and work </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Energy and Work/zh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Energy and work/zh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Install guide </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Install guide/zh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Materials and recipes </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Items/zh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laser turret (research) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logistic science pack (research) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main Page/Advanced </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Main Page/Advanced/zh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main Page/Beginners </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Main Page/Beginners/zh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main Page/Community </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Main Page/Community/zh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main Page/Contribute </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Main Page/Contribute/zh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main Page/Expert </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Main Page/Expert/zh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main Page/Frequently asked questions </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Main Page/Frequently asked questions/zh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main Page/Get the game </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Main Page/Get the game/zh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main Page/New content </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Main Page/New content/zh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Official Factorio Wiki&lt;/title&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Main Page/zh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Materials and recipes/zh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Military science pack (research) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mining drill </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mining drill/zh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modding overview </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modding overview/zh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Production science pack (research) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Replay system </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Replay system/zh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rock </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rock/zh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rocket defense </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rocket defense/zh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rocket defense (research) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smart chest </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Smart chest/zh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smart inserter </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Smart inserter/zh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supply challenge </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Supply challenge/zh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category:Tools/zh </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tools/zh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transport/What Transport for which case </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Transport/What Transport for which case?/zh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wood (archived) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wood (archived)/zh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alien artifact/zh</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alien science pack/zh</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alien technology (research)/zh</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Application directory/zh</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Armor crafting (research)/zh</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Automated construction (research) </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Automated construction (research)/zh</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Balancer mechanics/zh</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Balancers/zh</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>均衡器？</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Battery MK2 equipment (research)/zh</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Battery equipment (research)/zh</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Personal battery (research)/zh</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Personal battery MK2 (research)/zh</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Blueprint library/zh</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chemical science pack (research)/zh</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Logistic science pack (research)/zh</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Military science pack (research)/zh</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Production science pack (research)/zh</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Space science pack (research)/zh</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Combat robotics (research)/zh</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Curved rail/zh</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Defender (research)/zh</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Destroyer (research)/zh</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Distractor (research)/zh</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fast inserter (research)/zh</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>高速机械臂</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gate (research)/zh</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gun turret (research)/zh</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>闸门</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Land mines (research)/zh</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>地雷</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Laser shooting speed (research)/zh</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光射速</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Laser turret (research)/zh</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Fast inserter (research) </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Gate (research) </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Gun turret (research) </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>机枪炮塔</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Land mines (research) </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Laser shooting speed (research) </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Laser turret (research) </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮塔</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Laser turrets (research)/zh</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Low density structure (research)/zh</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Personal roboport MK2 (research)/zh</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Physical projectile damage (research)/zh</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Power armor MK2 (research)/zh</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rocket defense (research)/zh</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器人指令模块MK2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>动能武器伤害</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Low density structure (research) </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻质框架</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Personal roboport MK2 (research) </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Physical projectile damage (research) </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Power armor MK2 (research) </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量装甲MK2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Space science pack (research) </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Steel axe (research)/zh</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Stone wall (research)/zh</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tank (research)/zh</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Uranium processing (research)/zh</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Weapon shooting speed (research)/zh</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>石墙</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Steel axe (research) </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢斧镐</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Stone wall (research) </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Tank (research) </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>坦克</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Uranium processing (research) </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>铀浓缩处理</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Weapon shooting speed (research) </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>动能武器射速</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -3778,8 +4296,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F457"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A401" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A411" sqref="A411"/>
+    <sheetView topLeftCell="A376" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E399" sqref="E399"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12833,4 +13351,764 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EB25E40-F354-4187-B728-DBDDC35FF635}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:D66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="38.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>918</v>
+      </c>
+      <c r="B2" t="s">
+        <v>985</v>
+      </c>
+      <c r="D2" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>919</v>
+      </c>
+      <c r="B3" t="s">
+        <v>986</v>
+      </c>
+      <c r="D3" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>920</v>
+      </c>
+      <c r="B4" t="s">
+        <v>987</v>
+      </c>
+      <c r="D4" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>921</v>
+      </c>
+      <c r="B5" t="s">
+        <v>988</v>
+      </c>
+      <c r="D5" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>922</v>
+      </c>
+      <c r="B6" t="s">
+        <v>991</v>
+      </c>
+      <c r="D6" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>992</v>
+      </c>
+      <c r="B7" t="s">
+        <v>993</v>
+      </c>
+      <c r="D7" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>923</v>
+      </c>
+      <c r="B8" t="s">
+        <v>994</v>
+      </c>
+      <c r="D8" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>923</v>
+      </c>
+      <c r="B9" t="s">
+        <v>995</v>
+      </c>
+      <c r="D9" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>924</v>
+      </c>
+      <c r="B10" t="s">
+        <v>997</v>
+      </c>
+      <c r="D10" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>925</v>
+      </c>
+      <c r="B11" t="s">
+        <v>999</v>
+      </c>
+      <c r="D11" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>926</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D12" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>927</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D13" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>928</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D14" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>929</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>928</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D16" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>930</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D17" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>931</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D18" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>932</v>
+      </c>
+      <c r="B19" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>932</v>
+      </c>
+      <c r="B20" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D21" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D22" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D23" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>935</v>
+      </c>
+      <c r="B24" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>937</v>
+      </c>
+      <c r="B25" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D26" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D27" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D28" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>939</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D29" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>940</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D30" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D31" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>941</v>
+      </c>
+      <c r="B32" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>943</v>
+      </c>
+      <c r="B33" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>945</v>
+      </c>
+      <c r="B34" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>947</v>
+      </c>
+      <c r="B35" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>949</v>
+      </c>
+      <c r="B36" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>951</v>
+      </c>
+      <c r="B37" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>953</v>
+      </c>
+      <c r="B38" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>955</v>
+      </c>
+      <c r="B39" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>957</v>
+      </c>
+      <c r="B40" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>937</v>
+      </c>
+      <c r="B41" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>960</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D42" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>961</v>
+      </c>
+      <c r="B43" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>963</v>
+      </c>
+      <c r="B44" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>925</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D45" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>924</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D46" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D47" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D48" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D49" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>965</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D50" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>966</v>
+      </c>
+      <c r="B51" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>968</v>
+      </c>
+      <c r="B52" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>970</v>
+      </c>
+      <c r="B53" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>972</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D54" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>973</v>
+      </c>
+      <c r="B55" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>975</v>
+      </c>
+      <c r="B56" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D57" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D58" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D59" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>977</v>
+      </c>
+      <c r="B60" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D61" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>979</v>
+      </c>
+      <c r="B62" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>981</v>
+      </c>
+      <c r="B63" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D64" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D65" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>983</v>
+      </c>
+      <c r="B66" t="s">
+        <v>984</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D66" xr:uid="{1EB25E40-F354-4187-B728-DBDDC35FF635}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Alien technology (research)/zh"/>
+        <filter val="Armor crafting (research)/zh"/>
+        <filter val="Automated construction (research)/zh"/>
+        <filter val="Battery equipment (research)/zh"/>
+        <filter val="Battery MK2 equipment (research)/zh"/>
+        <filter val="Chemical science pack (research)/zh"/>
+        <filter val="Combat robotics (research)/zh"/>
+        <filter val="Defender (research)/zh"/>
+        <filter val="Destroyer (research)/zh"/>
+        <filter val="Distractor (research)/zh"/>
+        <filter val="Fast inserter (research)/zh"/>
+        <filter val="Gate (research)/zh"/>
+        <filter val="Gun turret (research)/zh"/>
+        <filter val="Land mines (research)/zh"/>
+        <filter val="Laser shooting speed (research)/zh"/>
+        <filter val="Laser turret (research)/zh"/>
+        <filter val="Laser turrets (research)/zh"/>
+        <filter val="Logistic science pack (research)/zh"/>
+        <filter val="Low density structure (research)/zh"/>
+        <filter val="Military science pack (research)/zh"/>
+        <filter val="Personal battery (research)/zh"/>
+        <filter val="Personal battery MK2 (research)/zh"/>
+        <filter val="Personal roboport MK2 (research)/zh"/>
+        <filter val="Physical projectile damage (research)/zh"/>
+        <filter val="Power armor MK2 (research)/zh"/>
+        <filter val="Production science pack (research)/zh"/>
+        <filter val="Rocket defense (research)/zh"/>
+        <filter val="Space science pack (research)/zh"/>
+        <filter val="Steel axe (research)/zh"/>
+        <filter val="Stone wall (research)/zh"/>
+        <filter val="Tank (research)/zh"/>
+        <filter val="Uranium processing (research)/zh"/>
+        <filter val="Weapon shooting speed (research)/zh"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="√"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>